--- a/~Documents/api-error.xlsx
+++ b/~Documents/api-error.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="150">
   <si>
     <t>Outcome Matrix</t>
   </si>
@@ -245,7 +245,10 @@
     <t>Unauthorized Instrument Position request from logged account</t>
   </si>
   <si>
-    <t>Invalid Order State</t>
+    <t>Invalid Order State metadata; unable to resolve state [${order.state}}] on Order: ${request}</t>
+  </si>
+  <si>
+    <t>Order not found for Request: ${request.clientOrderId || request.orderId}</t>
   </si>
   <si>
     <t>Pending</t>
@@ -475,10 +478,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -520,6 +523,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -528,24 +539,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,60 +571,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,9 +602,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,7 +624,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -651,9 +632,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -678,25 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,109 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +723,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +813,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,11 +1569,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,41 +1613,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,9 +1649,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,152 +1671,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1993,9 +1996,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2391,17 +2391,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79259259259259" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="2" width="19.8666666666667" customWidth="1"/>
     <col min="3" max="7" width="14.5407407407407" style="3" customWidth="1"/>
-    <col min="8" max="8" width="68.3703703703704" style="3" customWidth="1"/>
+    <col min="8" max="8" width="93.1185185185185" style="3" customWidth="1"/>
     <col min="9" max="11" width="14.5407407407407" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2486,7 +2486,7 @@
       <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2507,13 +2507,13 @@
       <c r="H6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="60">
         <v>0</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="61" t="s">
         <v>17</v>
       </c>
       <c r="M6">
@@ -2534,13 +2534,13 @@
       <c r="H7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="62">
         <v>312</v>
       </c>
-      <c r="J7" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="64"/>
+      <c r="J7" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" customFormat="1" spans="1:11">
       <c r="A8" s="10"/>
@@ -2555,13 +2555,13 @@
       <c r="H8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="62">
         <v>315</v>
       </c>
-      <c r="J8" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="64"/>
+      <c r="J8" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" customFormat="1" spans="1:11">
       <c r="A9" s="10"/>
@@ -2576,13 +2576,13 @@
       <c r="H9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="66"/>
+      <c r="J9" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="65"/>
     </row>
     <row r="10" customFormat="1" spans="1:11">
       <c r="A10" s="10"/>
@@ -2605,7 +2605,7 @@
       <c r="J10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="63" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
       <c r="J11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="64"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" customFormat="1" spans="1:11">
       <c r="A12" s="10"/>
@@ -2649,7 +2649,7 @@
       <c r="J12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="64"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" customFormat="1" spans="1:11">
       <c r="A13" s="10"/>
@@ -2664,13 +2664,13 @@
       <c r="H13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="68"/>
+      <c r="J13" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" customFormat="1" spans="1:11">
       <c r="A14" s="10"/>
@@ -2687,13 +2687,13 @@
       <c r="H14" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="68">
         <v>0</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="69" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2710,13 +2710,13 @@
       <c r="H15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="63">
-        <v>200</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="64"/>
+      <c r="I15" s="62">
+        <v>200</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" customFormat="1" spans="1:11">
       <c r="A16" s="10"/>
@@ -2731,13 +2731,13 @@
       <c r="H16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="62">
         <v>315</v>
       </c>
-      <c r="J16" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="64"/>
+      <c r="J16" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
       <c r="A17" s="10"/>
@@ -2758,7 +2758,7 @@
       <c r="J17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="64"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" customFormat="1" spans="1:11">
       <c r="A18" s="10"/>
@@ -2779,7 +2779,7 @@
       <c r="J18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="64"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" customFormat="1" ht="14.85" spans="1:11">
       <c r="A19" s="21"/>
@@ -2794,13 +2794,13 @@
       <c r="H19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="72"/>
+      <c r="J19" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="25" t="s">
@@ -2817,13 +2817,13 @@
         <v>14</v>
       </c>
       <c r="H20" s="57"/>
-      <c r="I20" s="73">
+      <c r="I20" s="72">
         <v>0</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="63" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2838,13 +2838,13 @@
         <v>18</v>
       </c>
       <c r="H21" s="44"/>
-      <c r="I21" s="63">
+      <c r="I21" s="62">
         <v>201</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="64"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="28"/>
@@ -2857,13 +2857,13 @@
         <v>17</v>
       </c>
       <c r="H22" s="44"/>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="64"/>
+      <c r="J22" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="28"/>
@@ -2884,7 +2884,7 @@
       <c r="J23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="64"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="28"/>
@@ -2903,7 +2903,7 @@
       <c r="J24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="64"/>
+      <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="29"/>
@@ -2922,7 +2922,7 @@
       <c r="J25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="64"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" ht="14.85" spans="1:11">
       <c r="A26" s="31"/>
@@ -2935,13 +2935,13 @@
         <v>17</v>
       </c>
       <c r="H26" s="54"/>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="72"/>
+      <c r="J26" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="32" t="s">
@@ -2958,13 +2958,13 @@
         <v>14</v>
       </c>
       <c r="H27" s="41"/>
-      <c r="I27" s="61">
+      <c r="I27" s="60">
         <v>0</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2979,13 +2979,13 @@
         <v>18</v>
       </c>
       <c r="H28" s="44"/>
-      <c r="I28" s="63">
+      <c r="I28" s="62">
         <v>201</v>
       </c>
-      <c r="J28" s="63" t="s">
+      <c r="J28" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="64"/>
+      <c r="K28" s="63"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="28"/>
@@ -2998,13 +2998,13 @@
         <v>17</v>
       </c>
       <c r="H29" s="44"/>
-      <c r="I29" s="63" t="s">
+      <c r="I29" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="64"/>
+      <c r="J29" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="63"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="28"/>
@@ -3025,7 +3025,7 @@
       <c r="J30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="64"/>
+      <c r="K30" s="63"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="28"/>
@@ -3044,7 +3044,7 @@
       <c r="J31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="64"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" ht="14.85" spans="1:11">
       <c r="A32" s="31"/>
@@ -3057,13 +3057,13 @@
         <v>17</v>
       </c>
       <c r="H32" s="54"/>
-      <c r="I32" s="71" t="s">
+      <c r="I32" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="72"/>
+      <c r="J32" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" customFormat="1" spans="1:11">
       <c r="A33" s="32" t="s">
@@ -3080,13 +3080,13 @@
         <v>14</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="61">
+      <c r="I33" s="60">
         <v>0</v>
       </c>
-      <c r="J33" s="61" t="s">
+      <c r="J33" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="62" t="s">
+      <c r="K33" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3101,13 +3101,13 @@
         <v>18</v>
       </c>
       <c r="H34" s="44"/>
-      <c r="I34" s="63">
+      <c r="I34" s="62">
         <v>201</v>
       </c>
-      <c r="J34" s="63" t="s">
+      <c r="J34" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="64"/>
+      <c r="K34" s="63"/>
     </row>
     <row r="35" customFormat="1" spans="1:11">
       <c r="A35" s="28"/>
@@ -3120,13 +3120,13 @@
         <v>17</v>
       </c>
       <c r="H35" s="44"/>
-      <c r="I35" s="63" t="s">
+      <c r="I35" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="64"/>
+      <c r="J35" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="63"/>
     </row>
     <row r="36" customFormat="1" spans="1:11">
       <c r="A36" s="28"/>
@@ -3147,7 +3147,7 @@
       <c r="J36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="64"/>
+      <c r="K36" s="63"/>
     </row>
     <row r="37" customFormat="1" spans="1:11">
       <c r="A37" s="28"/>
@@ -3166,7 +3166,7 @@
       <c r="J37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="64"/>
+      <c r="K37" s="63"/>
     </row>
     <row r="38" customFormat="1" ht="14.85" spans="1:11">
       <c r="A38" s="31"/>
@@ -3179,13 +3179,13 @@
         <v>17</v>
       </c>
       <c r="H38" s="54"/>
-      <c r="I38" s="71" t="s">
+      <c r="I38" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="72"/>
+      <c r="J38" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="71"/>
     </row>
     <row r="39" customFormat="1" spans="1:11">
       <c r="A39" s="32" t="s">
@@ -3204,13 +3204,13 @@
       <c r="H39" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="69">
+      <c r="I39" s="68">
         <v>0</v>
       </c>
-      <c r="J39" s="69" t="s">
+      <c r="J39" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="70" t="s">
+      <c r="K39" s="69" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3227,13 +3227,13 @@
       <c r="H40" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="63">
-        <v>200</v>
-      </c>
-      <c r="J40" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="64"/>
+      <c r="I40" s="62">
+        <v>200</v>
+      </c>
+      <c r="J40" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="63"/>
     </row>
     <row r="41" customFormat="1" spans="1:11">
       <c r="A41" s="28"/>
@@ -3254,7 +3254,7 @@
       <c r="J41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="64"/>
+      <c r="K41" s="63"/>
     </row>
     <row r="42" customFormat="1" spans="1:11">
       <c r="A42" s="28"/>
@@ -3275,7 +3275,7 @@
       <c r="J42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="64"/>
+      <c r="K42" s="63"/>
     </row>
     <row r="43" customFormat="1" ht="14.85" spans="1:11">
       <c r="A43" s="31"/>
@@ -3290,13 +3290,13 @@
       <c r="H43" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="71" t="s">
+      <c r="I43" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="72"/>
+      <c r="J43" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="71"/>
     </row>
     <row r="44" customFormat="1" spans="1:11">
       <c r="A44" s="33" t="s">
@@ -3315,13 +3315,13 @@
       <c r="H44" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="I44" s="63">
+      <c r="I44" s="62">
         <v>410</v>
       </c>
-      <c r="J44" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="62" t="s">
+      <c r="J44" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3336,13 +3336,13 @@
         <v>14</v>
       </c>
       <c r="H45" s="44"/>
-      <c r="I45" s="63">
+      <c r="I45" s="62">
         <v>0</v>
       </c>
-      <c r="J45" s="63" t="s">
+      <c r="J45" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="64"/>
+      <c r="K45" s="63"/>
     </row>
     <row r="46" customFormat="1" spans="1:11">
       <c r="A46" s="28"/>
@@ -3355,13 +3355,13 @@
         <v>18</v>
       </c>
       <c r="H46" s="44"/>
-      <c r="I46" s="63">
+      <c r="I46" s="62">
         <v>201</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J46" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="64"/>
+      <c r="K46" s="63"/>
     </row>
     <row r="47" customFormat="1" spans="1:11">
       <c r="A47" s="28"/>
@@ -3374,13 +3374,13 @@
         <v>17</v>
       </c>
       <c r="H47" s="44"/>
-      <c r="I47" s="63" t="s">
+      <c r="I47" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="64"/>
+      <c r="J47" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="63"/>
     </row>
     <row r="48" customFormat="1" spans="1:11">
       <c r="A48" s="28"/>
@@ -3399,7 +3399,7 @@
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K48" s="64"/>
+      <c r="K48" s="63"/>
     </row>
     <row r="49" customFormat="1" spans="1:11">
       <c r="A49" s="28"/>
@@ -3418,7 +3418,7 @@
       <c r="J49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="64"/>
+      <c r="K49" s="63"/>
     </row>
     <row r="50" customFormat="1" ht="14.85" spans="1:11">
       <c r="A50" s="31"/>
@@ -3431,13 +3431,13 @@
         <v>17</v>
       </c>
       <c r="H50" s="54"/>
-      <c r="I50" s="71" t="s">
+      <c r="I50" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="72"/>
+      <c r="J50" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="71"/>
     </row>
     <row r="51" customFormat="1" spans="1:11">
       <c r="A51" s="33" t="s">
@@ -3454,13 +3454,13 @@
         <v>45</v>
       </c>
       <c r="H51" s="44"/>
-      <c r="I51" s="63">
+      <c r="I51" s="62">
         <v>411</v>
       </c>
-      <c r="J51" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="62" t="s">
+      <c r="J51" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3475,13 +3475,13 @@
         <v>14</v>
       </c>
       <c r="H52" s="44"/>
-      <c r="I52" s="63">
+      <c r="I52" s="62">
         <v>0</v>
       </c>
-      <c r="J52" s="63" t="s">
+      <c r="J52" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="64"/>
+      <c r="K52" s="63"/>
     </row>
     <row r="53" customFormat="1" spans="1:11">
       <c r="A53" s="28"/>
@@ -3494,13 +3494,13 @@
         <v>18</v>
       </c>
       <c r="H53" s="44"/>
-      <c r="I53" s="63">
+      <c r="I53" s="62">
         <v>201</v>
       </c>
-      <c r="J53" s="63" t="s">
+      <c r="J53" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="64"/>
+      <c r="K53" s="63"/>
     </row>
     <row r="54" customFormat="1" spans="1:11">
       <c r="A54" s="28"/>
@@ -3513,13 +3513,13 @@
         <v>17</v>
       </c>
       <c r="H54" s="44"/>
-      <c r="I54" s="63" t="s">
+      <c r="I54" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J54" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="64"/>
+      <c r="J54" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="63"/>
     </row>
     <row r="55" customFormat="1" spans="1:11">
       <c r="A55" s="28"/>
@@ -3538,7 +3538,7 @@
       <c r="J55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K55" s="64"/>
+      <c r="K55" s="63"/>
     </row>
     <row r="56" customFormat="1" spans="1:11">
       <c r="A56" s="28"/>
@@ -3557,7 +3557,7 @@
       <c r="J56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="64"/>
+      <c r="K56" s="63"/>
     </row>
     <row r="57" customFormat="1" ht="14.85" spans="1:11">
       <c r="A57" s="31"/>
@@ -3570,13 +3570,13 @@
         <v>17</v>
       </c>
       <c r="H57" s="54"/>
-      <c r="I57" s="71" t="s">
+      <c r="I57" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="72"/>
+      <c r="J57" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="71"/>
     </row>
     <row r="58" customFormat="1" spans="1:11">
       <c r="A58" s="32" t="s">
@@ -3593,13 +3593,13 @@
         <v>14</v>
       </c>
       <c r="H58" s="41"/>
-      <c r="I58" s="61">
+      <c r="I58" s="60">
         <v>0</v>
       </c>
-      <c r="J58" s="61" t="s">
+      <c r="J58" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="62" t="s">
+      <c r="K58" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3614,13 +3614,13 @@
         <v>18</v>
       </c>
       <c r="H59" s="44"/>
-      <c r="I59" s="63">
+      <c r="I59" s="62">
         <v>201</v>
       </c>
-      <c r="J59" s="63" t="s">
+      <c r="J59" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="64"/>
+      <c r="K59" s="63"/>
     </row>
     <row r="60" customFormat="1" spans="1:11">
       <c r="A60" s="28"/>
@@ -3633,13 +3633,13 @@
         <v>17</v>
       </c>
       <c r="H60" s="44"/>
-      <c r="I60" s="63" t="s">
+      <c r="I60" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="64"/>
+      <c r="J60" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="63"/>
     </row>
     <row r="61" customFormat="1" spans="1:11">
       <c r="A61" s="28"/>
@@ -3660,7 +3660,7 @@
       <c r="J61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="64"/>
+      <c r="K61" s="63"/>
     </row>
     <row r="62" customFormat="1" spans="1:11">
       <c r="A62" s="28"/>
@@ -3679,7 +3679,7 @@
       <c r="J62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K62" s="64"/>
+      <c r="K62" s="63"/>
     </row>
     <row r="63" customFormat="1" ht="14.85" spans="1:11">
       <c r="A63" s="31"/>
@@ -3692,13 +3692,13 @@
         <v>17</v>
       </c>
       <c r="H63" s="54"/>
-      <c r="I63" s="71" t="s">
+      <c r="I63" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="72"/>
+      <c r="J63" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="71"/>
     </row>
     <row r="64" customFormat="1" spans="1:11">
       <c r="A64" s="32" t="s">
@@ -3715,13 +3715,13 @@
         <v>14</v>
       </c>
       <c r="H64" s="41"/>
-      <c r="I64" s="61">
+      <c r="I64" s="60">
         <v>0</v>
       </c>
-      <c r="J64" s="61" t="s">
+      <c r="J64" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K64" s="62" t="s">
+      <c r="K64" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3736,13 +3736,13 @@
         <v>18</v>
       </c>
       <c r="H65" s="44"/>
-      <c r="I65" s="63">
+      <c r="I65" s="62">
         <v>201</v>
       </c>
-      <c r="J65" s="63" t="s">
+      <c r="J65" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K65" s="64"/>
+      <c r="K65" s="63"/>
     </row>
     <row r="66" customFormat="1" spans="1:11">
       <c r="A66" s="28"/>
@@ -3755,13 +3755,13 @@
         <v>17</v>
       </c>
       <c r="H66" s="44"/>
-      <c r="I66" s="63" t="s">
+      <c r="I66" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J66" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="64"/>
+      <c r="J66" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="63"/>
     </row>
     <row r="67" customFormat="1" spans="1:11">
       <c r="A67" s="28"/>
@@ -3782,7 +3782,7 @@
       <c r="J67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="64"/>
+      <c r="K67" s="63"/>
     </row>
     <row r="68" customFormat="1" spans="1:11">
       <c r="A68" s="28"/>
@@ -3801,7 +3801,7 @@
       <c r="J68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K68" s="64"/>
+      <c r="K68" s="63"/>
     </row>
     <row r="69" customFormat="1" ht="14.85" spans="1:11">
       <c r="A69" s="31"/>
@@ -3814,13 +3814,13 @@
         <v>17</v>
       </c>
       <c r="H69" s="54"/>
-      <c r="I69" s="71" t="s">
+      <c r="I69" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J69" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="72"/>
+      <c r="J69" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="71"/>
     </row>
     <row r="70" customFormat="1" spans="1:11">
       <c r="A70" s="35" t="s">
@@ -3839,13 +3839,13 @@
       <c r="H70" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="61">
+      <c r="I70" s="60">
         <v>415</v>
       </c>
-      <c r="J70" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="62" t="s">
+      <c r="J70" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="61" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3860,13 +3860,13 @@
         <v>14</v>
       </c>
       <c r="H71" s="44"/>
-      <c r="I71" s="63">
+      <c r="I71" s="62">
         <v>0</v>
       </c>
-      <c r="J71" s="63" t="s">
+      <c r="J71" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K71" s="64"/>
+      <c r="K71" s="63"/>
     </row>
     <row r="72" customFormat="1" spans="1:11">
       <c r="A72" s="28"/>
@@ -3879,13 +3879,13 @@
         <v>18</v>
       </c>
       <c r="H72" s="44"/>
-      <c r="I72" s="63">
+      <c r="I72" s="62">
         <v>201</v>
       </c>
-      <c r="J72" s="63" t="s">
+      <c r="J72" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K72" s="64"/>
+      <c r="K72" s="63"/>
     </row>
     <row r="73" customFormat="1" spans="1:11">
       <c r="A73" s="28"/>
@@ -3898,13 +3898,13 @@
         <v>17</v>
       </c>
       <c r="H73" s="44"/>
-      <c r="I73" s="63" t="s">
+      <c r="I73" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" s="64"/>
+      <c r="J73" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="63"/>
     </row>
     <row r="74" customFormat="1" spans="1:11">
       <c r="A74" s="28"/>
@@ -3923,7 +3923,7 @@
       <c r="J74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K74" s="64"/>
+      <c r="K74" s="63"/>
     </row>
     <row r="75" customFormat="1" spans="1:11">
       <c r="A75" s="28"/>
@@ -3942,7 +3942,7 @@
       <c r="J75" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="64"/>
+      <c r="K75" s="63"/>
     </row>
     <row r="76" customFormat="1" ht="14.85" spans="1:11">
       <c r="A76" s="31"/>
@@ -3955,16 +3955,16 @@
         <v>17</v>
       </c>
       <c r="H76" s="54"/>
-      <c r="I76" s="71" t="s">
+      <c r="I76" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="72"/>
+      <c r="J76" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="71"/>
     </row>
     <row r="77" customFormat="1" spans="1:11">
-      <c r="A77" s="74" t="s">
+      <c r="A77" s="73" t="s">
         <v>52</v>
       </c>
       <c r="B77" s="34" t="s">
@@ -3978,16 +3978,16 @@
         <v>45</v>
       </c>
       <c r="H77" s="41"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="62" t="s">
+      <c r="I77" s="60"/>
+      <c r="J77" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="61" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:11">
-      <c r="A78" s="75"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="36"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
@@ -3997,14 +3997,14 @@
         <v>14</v>
       </c>
       <c r="H78" s="44"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63" t="s">
+      <c r="I78" s="62"/>
+      <c r="J78" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="64"/>
+      <c r="K78" s="63"/>
     </row>
     <row r="79" customFormat="1" spans="1:11">
-      <c r="A79" s="75"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="36"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
@@ -4014,14 +4014,14 @@
         <v>18</v>
       </c>
       <c r="H79" s="44"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63" t="s">
+      <c r="I79" s="62"/>
+      <c r="J79" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K79" s="64"/>
+      <c r="K79" s="63"/>
     </row>
     <row r="80" customFormat="1" spans="1:11">
-      <c r="A80" s="75"/>
+      <c r="A80" s="74"/>
       <c r="B80" s="18"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
@@ -4031,14 +4031,14 @@
         <v>17</v>
       </c>
       <c r="H80" s="44"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="64"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="63"/>
     </row>
     <row r="81" customFormat="1" spans="1:11">
-      <c r="A81" s="75"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="30" t="s">
         <v>23</v>
       </c>
@@ -4058,10 +4058,10 @@
       <c r="J81" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K81" s="64"/>
+      <c r="K81" s="63"/>
     </row>
     <row r="82" customFormat="1" spans="1:11">
-      <c r="A82" s="75"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="36"/>
       <c r="C82" s="14"/>
       <c r="D82" s="15"/>
@@ -4079,10 +4079,10 @@
       <c r="J82" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K82" s="64"/>
+      <c r="K82" s="63"/>
     </row>
     <row r="83" customFormat="1" spans="1:11">
-      <c r="A83" s="75"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="36"/>
       <c r="C83" s="14"/>
       <c r="D83" s="15"/>
@@ -4100,10 +4100,10 @@
       <c r="J83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="64"/>
+      <c r="K83" s="63"/>
     </row>
     <row r="84" customFormat="1" spans="1:11">
-      <c r="A84" s="75"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="36"/>
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
@@ -4121,10 +4121,10 @@
       <c r="J84" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K84" s="64"/>
+      <c r="K84" s="63"/>
     </row>
     <row r="85" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A85" s="76"/>
+      <c r="A85" s="75"/>
       <c r="B85" s="37"/>
       <c r="C85" s="23"/>
       <c r="D85" s="24"/>
@@ -4136,13 +4136,13 @@
       <c r="H85" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I85" s="71" t="s">
+      <c r="I85" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" s="72"/>
+      <c r="J85" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="71"/>
     </row>
     <row r="86" customFormat="1" spans="1:11">
       <c r="A86" s="35" t="s">
@@ -4161,13 +4161,13 @@
       <c r="H86" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I86" s="61">
+      <c r="I86" s="60">
         <v>414</v>
       </c>
-      <c r="J86" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" s="62" t="s">
+      <c r="J86" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="61" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4182,13 +4182,13 @@
         <v>14</v>
       </c>
       <c r="H87" s="44"/>
-      <c r="I87" s="63">
+      <c r="I87" s="62">
         <v>0</v>
       </c>
-      <c r="J87" s="63" t="s">
+      <c r="J87" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K87" s="64"/>
+      <c r="K87" s="63"/>
     </row>
     <row r="88" customFormat="1" spans="1:11">
       <c r="A88" s="28"/>
@@ -4201,13 +4201,13 @@
         <v>18</v>
       </c>
       <c r="H88" s="44"/>
-      <c r="I88" s="63">
-        <v>200</v>
-      </c>
-      <c r="J88" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" s="64"/>
+      <c r="I88" s="62">
+        <v>200</v>
+      </c>
+      <c r="J88" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="63"/>
     </row>
     <row r="89" customFormat="1" spans="1:11">
       <c r="A89" s="28"/>
@@ -4220,13 +4220,13 @@
         <v>17</v>
       </c>
       <c r="H89" s="44"/>
-      <c r="I89" s="63" t="s">
+      <c r="I89" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J89" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" s="64"/>
+      <c r="J89" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="63"/>
     </row>
     <row r="90" customFormat="1" spans="1:11">
       <c r="A90" s="28"/>
@@ -4245,7 +4245,7 @@
       <c r="J90" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K90" s="64"/>
+      <c r="K90" s="63"/>
     </row>
     <row r="91" customFormat="1" spans="1:11">
       <c r="A91" s="28"/>
@@ -4264,7 +4264,7 @@
       <c r="J91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K91" s="64"/>
+      <c r="K91" s="63"/>
     </row>
     <row r="92" customFormat="1" ht="14.85" spans="1:11">
       <c r="A92" s="31"/>
@@ -4277,13 +4277,13 @@
         <v>17</v>
       </c>
       <c r="H92" s="54"/>
-      <c r="I92" s="71" t="s">
+      <c r="I92" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J92" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="72"/>
+      <c r="J92" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="71"/>
     </row>
     <row r="93" customFormat="1" spans="1:11">
       <c r="A93" s="33" t="s">
@@ -4300,13 +4300,13 @@
         <v>14</v>
       </c>
       <c r="H93" s="41"/>
-      <c r="I93" s="61">
+      <c r="I93" s="60">
         <v>0</v>
       </c>
-      <c r="J93" s="61" t="s">
+      <c r="J93" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K93" s="62" t="s">
+      <c r="K93" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4321,32 +4321,32 @@
         <v>18</v>
       </c>
       <c r="H94" s="44"/>
-      <c r="I94" s="63">
+      <c r="I94" s="62">
         <v>201</v>
       </c>
-      <c r="J94" s="63" t="s">
+      <c r="J94" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K94" s="64"/>
+      <c r="K94" s="63"/>
     </row>
     <row r="95" customFormat="1" ht="14.85" spans="1:11">
       <c r="A95" s="31"/>
       <c r="B95" s="22"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="78"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="81"/>
-      <c r="I95" s="82" t="s">
+      <c r="C95" s="76"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="80"/>
+      <c r="I95" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="J95" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="72"/>
+      <c r="J95" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="71"/>
     </row>
     <row r="96" customFormat="1" spans="1:11">
       <c r="A96" s="35" t="s">
@@ -4365,13 +4365,13 @@
       <c r="H96" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I96" s="73">
+      <c r="I96" s="72">
         <v>413</v>
       </c>
-      <c r="J96" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="64" t="s">
+      <c r="J96" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="63" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4386,13 +4386,13 @@
         <v>14</v>
       </c>
       <c r="H97" s="44"/>
-      <c r="I97" s="63">
+      <c r="I97" s="62">
         <v>0</v>
       </c>
-      <c r="J97" s="63" t="s">
+      <c r="J97" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K97" s="64"/>
+      <c r="K97" s="63"/>
     </row>
     <row r="98" customFormat="1" spans="1:11">
       <c r="A98" s="28"/>
@@ -4405,13 +4405,13 @@
         <v>18</v>
       </c>
       <c r="H98" s="44"/>
-      <c r="I98" s="63">
-        <v>200</v>
-      </c>
-      <c r="J98" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K98" s="64"/>
+      <c r="I98" s="62">
+        <v>200</v>
+      </c>
+      <c r="J98" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="63"/>
     </row>
     <row r="99" customFormat="1" spans="1:11">
       <c r="A99" s="28"/>
@@ -4424,13 +4424,13 @@
         <v>17</v>
       </c>
       <c r="H99" s="44"/>
-      <c r="I99" s="63" t="s">
+      <c r="I99" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J99" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K99" s="64"/>
+      <c r="J99" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="63"/>
     </row>
     <row r="100" customFormat="1" spans="1:11">
       <c r="A100" s="28"/>
@@ -4449,7 +4449,7 @@
       <c r="J100" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K100" s="64"/>
+      <c r="K100" s="63"/>
     </row>
     <row r="101" customFormat="1" spans="1:11">
       <c r="A101" s="28"/>
@@ -4468,7 +4468,7 @@
       <c r="J101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="64"/>
+      <c r="K101" s="63"/>
     </row>
     <row r="102" customFormat="1" ht="14.85" spans="1:11">
       <c r="A102" s="31"/>
@@ -4481,13 +4481,13 @@
         <v>17</v>
       </c>
       <c r="H102" s="54"/>
-      <c r="I102" s="71" t="s">
+      <c r="I102" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J102" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102" s="72"/>
+      <c r="J102" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="71"/>
     </row>
     <row r="103" customFormat="1" spans="1:11">
       <c r="A103" s="35" t="s">
@@ -4506,13 +4506,13 @@
       <c r="H103" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I103" s="73">
+      <c r="I103" s="72">
         <v>411</v>
       </c>
-      <c r="J103" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="K103" s="64" t="s">
+      <c r="J103" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="63" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4527,13 +4527,13 @@
         <v>14</v>
       </c>
       <c r="H104" s="44"/>
-      <c r="I104" s="63">
+      <c r="I104" s="62">
         <v>0</v>
       </c>
-      <c r="J104" s="63" t="s">
+      <c r="J104" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K104" s="64"/>
+      <c r="K104" s="63"/>
     </row>
     <row r="105" customFormat="1" spans="1:11">
       <c r="A105" s="28"/>
@@ -4546,13 +4546,13 @@
         <v>18</v>
       </c>
       <c r="H105" s="44"/>
-      <c r="I105" s="63">
+      <c r="I105" s="62">
         <v>201</v>
       </c>
-      <c r="J105" s="63" t="s">
+      <c r="J105" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K105" s="64"/>
+      <c r="K105" s="63"/>
     </row>
     <row r="106" customFormat="1" spans="1:11">
       <c r="A106" s="28"/>
@@ -4565,13 +4565,13 @@
         <v>17</v>
       </c>
       <c r="H106" s="44"/>
-      <c r="I106" s="63" t="s">
+      <c r="I106" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J106" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K106" s="64"/>
+      <c r="J106" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="63"/>
     </row>
     <row r="107" customFormat="1" spans="1:11">
       <c r="A107" s="28"/>
@@ -4590,7 +4590,7 @@
       <c r="J107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="64"/>
+      <c r="K107" s="63"/>
     </row>
     <row r="108" customFormat="1" spans="1:11">
       <c r="A108" s="28"/>
@@ -4609,7 +4609,7 @@
       <c r="J108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K108" s="64"/>
+      <c r="K108" s="63"/>
     </row>
     <row r="109" customFormat="1" ht="14.85" spans="1:11">
       <c r="A109" s="31"/>
@@ -4622,13 +4622,13 @@
         <v>17</v>
       </c>
       <c r="H109" s="54"/>
-      <c r="I109" s="71" t="s">
+      <c r="I109" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J109" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K109" s="72"/>
+      <c r="J109" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="71"/>
     </row>
     <row r="110" customFormat="1" spans="1:11">
       <c r="A110" s="32" t="s">
@@ -4645,13 +4645,13 @@
         <v>14</v>
       </c>
       <c r="H110" s="41"/>
-      <c r="I110" s="61">
+      <c r="I110" s="60">
         <v>0</v>
       </c>
-      <c r="J110" s="61" t="s">
+      <c r="J110" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K110" s="83" t="s">
+      <c r="K110" s="82" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4666,13 +4666,13 @@
         <v>18</v>
       </c>
       <c r="H111" s="44"/>
-      <c r="I111" s="63">
+      <c r="I111" s="62">
         <v>201</v>
       </c>
-      <c r="J111" s="63" t="s">
+      <c r="J111" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K111" s="64"/>
+      <c r="K111" s="63"/>
     </row>
     <row r="112" customFormat="1" spans="1:11">
       <c r="A112" s="28"/>
@@ -4685,13 +4685,13 @@
         <v>17</v>
       </c>
       <c r="H112" s="44"/>
-      <c r="I112" s="63" t="s">
+      <c r="I112" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J112" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K112" s="64"/>
+      <c r="J112" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="63"/>
     </row>
     <row r="113" customFormat="1" spans="1:11">
       <c r="A113" s="28"/>
@@ -4712,7 +4712,7 @@
       <c r="J113" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="64"/>
+      <c r="K113" s="63"/>
     </row>
     <row r="114" customFormat="1" spans="1:11">
       <c r="A114" s="28"/>
@@ -4731,7 +4731,7 @@
       <c r="J114" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K114" s="64"/>
+      <c r="K114" s="63"/>
     </row>
     <row r="115" customFormat="1" ht="14.85" spans="1:11">
       <c r="A115" s="31"/>
@@ -4744,13 +4744,13 @@
         <v>17</v>
       </c>
       <c r="H115" s="54"/>
-      <c r="I115" s="71" t="s">
+      <c r="I115" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J115" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K115" s="72"/>
+      <c r="J115" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="71"/>
     </row>
     <row r="116" customFormat="1" spans="1:11">
       <c r="A116" s="32" t="s">
@@ -4767,13 +4767,13 @@
         <v>14</v>
       </c>
       <c r="H116" s="41"/>
-      <c r="I116" s="61">
+      <c r="I116" s="60">
         <v>0</v>
       </c>
-      <c r="J116" s="61" t="s">
+      <c r="J116" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K116" s="62" t="s">
+      <c r="K116" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4788,13 +4788,13 @@
         <v>18</v>
       </c>
       <c r="H117" s="44"/>
-      <c r="I117" s="63">
+      <c r="I117" s="62">
         <v>201</v>
       </c>
-      <c r="J117" s="63" t="s">
+      <c r="J117" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K117" s="64"/>
+      <c r="K117" s="63"/>
     </row>
     <row r="118" customFormat="1" spans="1:11">
       <c r="A118" s="28"/>
@@ -4807,13 +4807,13 @@
         <v>17</v>
       </c>
       <c r="H118" s="44"/>
-      <c r="I118" s="63" t="s">
+      <c r="I118" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J118" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" s="64"/>
+      <c r="J118" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="63"/>
     </row>
     <row r="119" customFormat="1" spans="1:11">
       <c r="A119" s="28"/>
@@ -4834,7 +4834,7 @@
       <c r="J119" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K119" s="64"/>
+      <c r="K119" s="63"/>
     </row>
     <row r="120" customFormat="1" spans="1:11">
       <c r="A120" s="28"/>
@@ -4853,7 +4853,7 @@
       <c r="J120" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K120" s="64"/>
+      <c r="K120" s="63"/>
     </row>
     <row r="121" customFormat="1" ht="14.85" spans="1:11">
       <c r="A121" s="31"/>
@@ -4866,13 +4866,13 @@
         <v>17</v>
       </c>
       <c r="H121" s="54"/>
-      <c r="I121" s="71" t="s">
+      <c r="I121" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J121" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K121" s="72"/>
+      <c r="J121" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="71"/>
     </row>
     <row r="122" customFormat="1" spans="1:11">
       <c r="A122" s="32" t="s">
@@ -4889,13 +4889,13 @@
         <v>14</v>
       </c>
       <c r="H122" s="41"/>
-      <c r="I122" s="61">
+      <c r="I122" s="60">
         <v>0</v>
       </c>
-      <c r="J122" s="61" t="s">
+      <c r="J122" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K122" s="62" t="s">
+      <c r="K122" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4910,13 +4910,13 @@
         <v>18</v>
       </c>
       <c r="H123" s="44"/>
-      <c r="I123" s="63">
-        <v>200</v>
-      </c>
-      <c r="J123" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K123" s="64"/>
+      <c r="I123" s="62">
+        <v>200</v>
+      </c>
+      <c r="J123" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="63"/>
     </row>
     <row r="124" customFormat="1" ht="14.85" spans="1:11">
       <c r="A124" s="28"/>
@@ -4929,13 +4929,13 @@
         <v>17</v>
       </c>
       <c r="H124" s="44"/>
-      <c r="I124" s="63" t="s">
+      <c r="I124" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J124" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K124" s="64"/>
+      <c r="J124" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="63"/>
     </row>
     <row r="125" customFormat="1" spans="1:11">
       <c r="A125" s="32" t="s">
@@ -4952,13 +4952,13 @@
         <v>14</v>
       </c>
       <c r="H125" s="41"/>
-      <c r="I125" s="61">
+      <c r="I125" s="60">
         <v>0</v>
       </c>
-      <c r="J125" s="61" t="s">
+      <c r="J125" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K125" s="62" t="s">
+      <c r="K125" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4973,13 +4973,13 @@
         <v>18</v>
       </c>
       <c r="H126" s="44"/>
-      <c r="I126" s="63">
+      <c r="I126" s="62">
         <v>201</v>
       </c>
-      <c r="J126" s="63" t="s">
+      <c r="J126" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K126" s="64"/>
+      <c r="K126" s="63"/>
     </row>
     <row r="127" customFormat="1" spans="1:11">
       <c r="A127" s="28"/>
@@ -4992,13 +4992,13 @@
         <v>17</v>
       </c>
       <c r="H127" s="44"/>
-      <c r="I127" s="63" t="s">
+      <c r="I127" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J127" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K127" s="64"/>
+      <c r="J127" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="63"/>
     </row>
     <row r="128" customFormat="1" spans="1:11">
       <c r="A128" s="28"/>
@@ -5019,7 +5019,7 @@
       <c r="J128" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K128" s="64"/>
+      <c r="K128" s="63"/>
     </row>
     <row r="129" customFormat="1" spans="1:11">
       <c r="A129" s="28"/>
@@ -5038,7 +5038,7 @@
       <c r="J129" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K129" s="64"/>
+      <c r="K129" s="63"/>
     </row>
     <row r="130" customFormat="1" ht="14.85" spans="1:11">
       <c r="A130" s="31"/>
@@ -5051,13 +5051,13 @@
         <v>17</v>
       </c>
       <c r="H130" s="54"/>
-      <c r="I130" s="71" t="s">
+      <c r="I130" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J130" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K130" s="72"/>
+      <c r="J130" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="71"/>
     </row>
     <row r="131" customFormat="1" spans="1:11">
       <c r="A131" s="32" t="s">
@@ -5074,13 +5074,13 @@
         <v>14</v>
       </c>
       <c r="H131" s="41"/>
-      <c r="I131" s="61">
+      <c r="I131" s="60">
         <v>0</v>
       </c>
-      <c r="J131" s="61" t="s">
+      <c r="J131" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K131" s="62" t="s">
+      <c r="K131" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5095,13 +5095,13 @@
         <v>18</v>
       </c>
       <c r="H132" s="44"/>
-      <c r="I132" s="63">
+      <c r="I132" s="62">
         <v>201</v>
       </c>
-      <c r="J132" s="63" t="s">
+      <c r="J132" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K132" s="64"/>
+      <c r="K132" s="63"/>
     </row>
     <row r="133" customFormat="1" spans="1:11">
       <c r="A133" s="28"/>
@@ -5114,13 +5114,13 @@
         <v>17</v>
       </c>
       <c r="H133" s="44"/>
-      <c r="I133" s="63" t="s">
+      <c r="I133" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J133" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K133" s="64"/>
+      <c r="J133" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" s="63"/>
     </row>
     <row r="134" customFormat="1" spans="1:11">
       <c r="A134" s="28"/>
@@ -5141,7 +5141,7 @@
       <c r="J134" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K134" s="64"/>
+      <c r="K134" s="63"/>
     </row>
     <row r="135" customFormat="1" spans="1:11">
       <c r="A135" s="28"/>
@@ -5160,7 +5160,7 @@
       <c r="J135" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K135" s="64"/>
+      <c r="K135" s="63"/>
     </row>
     <row r="136" customFormat="1" ht="14.85" spans="1:11">
       <c r="A136" s="31"/>
@@ -5173,19 +5173,19 @@
         <v>17</v>
       </c>
       <c r="H136" s="54"/>
-      <c r="I136" s="71" t="s">
+      <c r="I136" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J136" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K136" s="72"/>
+      <c r="J136" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" s="71"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="84" t="s">
+      <c r="A138" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B138" s="84" t="s">
+      <c r="B138" s="83" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="5" t="s">
@@ -5205,10 +5205,10 @@
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="85" t="s">
+      <c r="A139" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B139" s="85" t="s">
+      <c r="B139" s="84" t="s">
         <v>71</v>
       </c>
       <c r="C139" s="3">
@@ -5228,8 +5228,8 @@
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="85"/>
-      <c r="B140" s="85"/>
+      <c r="A140" s="84"/>
+      <c r="B140" s="84"/>
       <c r="C140" s="3">
         <v>502</v>
       </c>
@@ -5247,8 +5247,8 @@
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="85"/>
-      <c r="B141" s="85"/>
+      <c r="A141" s="84"/>
+      <c r="B141" s="84"/>
       <c r="C141" s="3">
         <v>503</v>
       </c>
@@ -5265,160 +5265,179 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="85" t="s">
+    <row r="142" spans="1:8">
+      <c r="A142" s="84"/>
+      <c r="B142" s="84"/>
+      <c r="C142" s="3">
+        <v>504</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="3">
+        <v>454</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B142" s="85" t="s">
+      <c r="B143" s="84" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="85"/>
-      <c r="B143" s="85"/>
-    </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144" s="85" t="s">
-        <v>75</v>
-      </c>
+      <c r="A144" s="84"/>
+      <c r="B144" s="84"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="85"/>
-      <c r="B145" s="85"/>
+      <c r="A145" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="84" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="85" t="s">
+      <c r="A146" s="84"/>
+      <c r="B146" s="84"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" s="84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="84"/>
+      <c r="B148" s="84"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" s="84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="84"/>
+      <c r="B150" s="84"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B151" s="84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="84"/>
+      <c r="B152" s="84"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B155" s="84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="84"/>
+      <c r="B156" s="84"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="B146" s="85" t="s">
+      <c r="B157" s="84" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="85"/>
-      <c r="B147" s="85"/>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="85" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" s="84"/>
+      <c r="B158" s="84"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B148" s="85" t="s">
+      <c r="B159" s="84" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="85"/>
-      <c r="B149" s="85"/>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="85" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="84"/>
+      <c r="B160" s="84"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B150" s="85" t="s">
+      <c r="B161" s="84" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="85"/>
-      <c r="B151" s="85"/>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153" s="84" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="84"/>
+      <c r="B162" s="84"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B153" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="B154" s="85" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="85"/>
-      <c r="B155" s="85"/>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B156" s="85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="85"/>
-      <c r="B157" s="85"/>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="B158" s="85" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="85"/>
-      <c r="B159" s="85"/>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="B160" s="85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="85"/>
-      <c r="B161" s="85"/>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="B162" s="85" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="85"/>
-      <c r="B163" s="85"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166">
+      <c r="B163" s="84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="84"/>
+      <c r="B164" s="84"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
         <v>601</v>
       </c>
-      <c r="B166" t="s">
-        <v>81</v>
+      <c r="B167" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5430,9 +5449,9 @@
     <mergeCell ref="C138:D138"/>
     <mergeCell ref="E138:F138"/>
     <mergeCell ref="G138:K138"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="G153:K153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G154:K154"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A19"/>
     <mergeCell ref="A20:A26"/>
@@ -5454,17 +5473,17 @@
     <mergeCell ref="A122:A124"/>
     <mergeCell ref="A125:A130"/>
     <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -5498,17 +5517,17 @@
     <mergeCell ref="B128:B130"/>
     <mergeCell ref="B131:B133"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="K10:K13"/>
     <mergeCell ref="K14:K19"/>
@@ -5557,13 +5576,13 @@
   <sheetData>
     <row r="1" ht="14.15" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="14.15" spans="1:3">
@@ -5574,7 +5593,7 @@
         <v>200</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="14.15" spans="1:3">
@@ -5585,7 +5604,7 @@
         <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="14.15" spans="1:3">
@@ -5596,7 +5615,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="14.15" spans="1:3">
@@ -5607,7 +5626,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="14.15" spans="1:3">
@@ -5618,7 +5637,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="14.15" spans="1:3">
@@ -5629,7 +5648,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="14.15" spans="1:3">
@@ -5640,7 +5659,7 @@
         <v>429</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" ht="14.15" spans="1:3">
@@ -5651,7 +5670,7 @@
         <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" ht="14.15" spans="1:3">
@@ -5662,7 +5681,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="14.15" spans="1:3">
@@ -5673,7 +5692,7 @@
         <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="14.15" spans="1:3">
@@ -5684,7 +5703,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" ht="14.15" spans="1:3">
@@ -5695,7 +5714,7 @@
         <v>200</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" ht="14.15" spans="1:3">
@@ -5706,7 +5725,7 @@
         <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" ht="14.15" spans="1:3">
@@ -5717,7 +5736,7 @@
         <v>200</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="14.15" spans="1:3">
@@ -5728,7 +5747,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" ht="14.15" spans="1:3">
@@ -5739,7 +5758,7 @@
         <v>200</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" ht="14.15" spans="1:3">
@@ -5750,7 +5769,7 @@
         <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="14.15" spans="1:3">
@@ -5761,7 +5780,7 @@
         <v>200</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" ht="14.15" spans="1:3">
@@ -5772,7 +5791,7 @@
         <v>200</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="14.15" spans="1:3">
@@ -5783,7 +5802,7 @@
         <v>200</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" ht="14.15" spans="1:3">
@@ -5794,7 +5813,7 @@
         <v>200</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" ht="14.15" spans="1:3">
@@ -5805,7 +5824,7 @@
         <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="14.15" spans="1:3">
@@ -5816,7 +5835,7 @@
         <v>200</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" ht="14.15" spans="1:3">
@@ -5827,7 +5846,7 @@
         <v>200</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" ht="14.15" spans="1:3">
@@ -5838,7 +5857,7 @@
         <v>200</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" ht="14.15" spans="1:3">
@@ -5849,7 +5868,7 @@
         <v>200</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" ht="14.15" spans="1:3">
@@ -5860,7 +5879,7 @@
         <v>200</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" ht="14.15" spans="1:3">
@@ -5871,7 +5890,7 @@
         <v>200</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" ht="14.15" spans="1:3">
@@ -5882,7 +5901,7 @@
         <v>200</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" ht="14.15" spans="1:3">
@@ -5893,7 +5912,7 @@
         <v>200</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" ht="14.15" spans="1:3">
@@ -5904,7 +5923,7 @@
         <v>200</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" ht="14.15" spans="1:3">
@@ -5915,7 +5934,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" ht="14.15" spans="1:3">
@@ -5926,7 +5945,7 @@
         <v>200</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" ht="14.15" spans="1:3">
@@ -5937,7 +5956,7 @@
         <v>200</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" ht="14.15" spans="1:3">
@@ -5948,7 +5967,7 @@
         <v>200</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" ht="14.15" spans="1:3">
@@ -5959,7 +5978,7 @@
         <v>200</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="14.15" spans="1:3">
@@ -5970,7 +5989,7 @@
         <v>200</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="14.15" spans="1:3">
@@ -5981,7 +6000,7 @@
         <v>200</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="14.15" spans="1:3">
@@ -5992,7 +6011,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="14.15" spans="1:3">
@@ -6003,7 +6022,7 @@
         <v>200</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="14.15" spans="1:3">
@@ -6014,7 +6033,7 @@
         <v>200</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="14.15" spans="1:3">
@@ -6025,7 +6044,7 @@
         <v>200</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" ht="14.15" spans="1:3">
@@ -6036,7 +6055,7 @@
         <v>200</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="14.15" spans="1:3">
@@ -6047,7 +6066,7 @@
         <v>200</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" ht="14.15" spans="1:3">
@@ -6058,7 +6077,7 @@
         <v>200</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" ht="14.15" spans="1:3">
@@ -6069,7 +6088,7 @@
         <v>200</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" ht="14.15" spans="1:3">
@@ -6080,7 +6099,7 @@
         <v>200</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" ht="14.15" spans="1:3">
@@ -6091,7 +6110,7 @@
         <v>200</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" ht="14.15" spans="1:3">
@@ -6102,7 +6121,7 @@
         <v>200</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" ht="14.15" spans="1:3">
@@ -6113,7 +6132,7 @@
         <v>200</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" ht="14.15" spans="1:3">
@@ -6124,7 +6143,7 @@
         <v>200</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" ht="14.15" spans="1:3">
@@ -6135,7 +6154,7 @@
         <v>200</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" ht="14.15" spans="1:3">
@@ -6146,7 +6165,7 @@
         <v>200</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" ht="14.15" spans="1:3">
@@ -6157,7 +6176,7 @@
         <v>200</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" ht="14.15" spans="1:3">
@@ -6168,7 +6187,7 @@
         <v>200</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" ht="14.15" spans="1:3">
@@ -6179,7 +6198,7 @@
         <v>200</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" ht="14.15" spans="1:3">
@@ -6190,7 +6209,7 @@
         <v>200</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="14.15" spans="1:3">
@@ -6201,7 +6220,7 @@
         <v>200</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" ht="14.15" spans="1:3">
@@ -6212,7 +6231,7 @@
         <v>200</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" ht="14.15" spans="1:3">
@@ -6223,7 +6242,7 @@
         <v>200</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" ht="14.15" spans="1:3">
@@ -6234,7 +6253,7 @@
         <v>200</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" ht="14.15" spans="1:3">
@@ -6245,7 +6264,7 @@
         <v>200</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" ht="14.15" spans="1:3">
@@ -6256,7 +6275,7 @@
         <v>200</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" ht="14.15" spans="1:3">
@@ -6267,7 +6286,7 @@
         <v>200</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/~Documents/api-error.xlsx
+++ b/~Documents/api-error.xlsx
@@ -479,9 +479,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -523,8 +523,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -533,9 +556,32 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,22 +595,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,21 +603,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +624,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -624,7 +646,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -632,31 +654,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -681,7 +681,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +771,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,103 +831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,49 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,17 +1569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1602,21 +1602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1628,6 +1613,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1671,82 +1671,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1755,64 +1755,64 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2393,8 +2393,8 @@
   <sheetPr/>
   <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="T137" sqref="T137:T138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79259259259259" defaultRowHeight="14.1"/>

--- a/~Documents/api-error.xlsx
+++ b/~Documents/api-error.xlsx
@@ -4,18 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15638"/>
+    <workbookView windowHeight="15638" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="baseline">[1]stop_request!$A$3:$A$22</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="151">
   <si>
     <t>Outcome Matrix</t>
   </si>
@@ -269,7 +275,10 @@
     <t>System Level Errors:</t>
   </si>
   <si>
-    <t>Critical System Error: Required states (Expired/Hold) are missing from cache</t>
+    <t>System Configuration: Required states (Expired/Hold) are missing from cache</t>
+  </si>
+  <si>
+    <t>System Configuration: Required stop types (tp/sl) are missing from cache</t>
   </si>
   <si>
     <t>error_code</t>
@@ -478,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -531,13 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -546,17 +548,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,61 +602,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,18 +622,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,19 +690,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,31 +786,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,31 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,85 +858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,20 +1593,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,17 +1623,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,167 +1675,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2131,6 +2140,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+      <sheetName val="stop_request"/>
+      <sheetName val="stop_order"/>
+      <sheetName val="vw_stop_orders"/>
+      <sheetName val="vw_api_stop_requests"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2391,10 +2421,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="T137" sqref="T137:T138"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79259259259259" defaultRowHeight="14.1"/>
@@ -5438,6 +5468,14 @@
       </c>
       <c r="B167" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>602</v>
+      </c>
+      <c r="B168" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5562,8 +5600,8 @@
   <sheetPr/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="102.377777777778" defaultRowHeight="14.1" outlineLevelCol="2"/>
@@ -5576,13 +5614,13 @@
   <sheetData>
     <row r="1" ht="14.15" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="14.15" spans="1:3">
@@ -5593,7 +5631,7 @@
         <v>200</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="14.15" spans="1:3">
@@ -5604,7 +5642,7 @@
         <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="14.15" spans="1:3">
@@ -5615,7 +5653,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="14.15" spans="1:3">
@@ -5626,7 +5664,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="14.15" spans="1:3">
@@ -5637,7 +5675,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="14.15" spans="1:3">
@@ -5648,7 +5686,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="14.15" spans="1:3">
@@ -5659,7 +5697,7 @@
         <v>429</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="14.15" spans="1:3">
@@ -5670,7 +5708,7 @@
         <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="14.15" spans="1:3">
@@ -5681,7 +5719,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" ht="14.15" spans="1:3">
@@ -5692,7 +5730,7 @@
         <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="14.15" spans="1:3">
@@ -5703,7 +5741,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="14.15" spans="1:3">
@@ -5714,7 +5752,7 @@
         <v>200</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="14.15" spans="1:3">
@@ -5725,7 +5763,7 @@
         <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" ht="14.15" spans="1:3">
@@ -5736,7 +5774,7 @@
         <v>200</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="14.15" spans="1:3">
@@ -5747,7 +5785,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" ht="14.15" spans="1:3">
@@ -5758,7 +5796,7 @@
         <v>200</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="14.15" spans="1:3">
@@ -5769,7 +5807,7 @@
         <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" ht="14.15" spans="1:3">
@@ -5780,7 +5818,7 @@
         <v>200</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" ht="14.15" spans="1:3">
@@ -5791,7 +5829,7 @@
         <v>200</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" ht="14.15" spans="1:3">
@@ -5802,7 +5840,7 @@
         <v>200</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" ht="14.15" spans="1:3">
@@ -5813,7 +5851,7 @@
         <v>200</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" ht="14.15" spans="1:3">
@@ -5824,7 +5862,7 @@
         <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" ht="14.15" spans="1:3">
@@ -5835,7 +5873,7 @@
         <v>200</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" ht="14.15" spans="1:3">
@@ -5846,7 +5884,7 @@
         <v>200</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" ht="14.15" spans="1:3">
@@ -5857,7 +5895,7 @@
         <v>200</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" ht="14.15" spans="1:3">
@@ -5868,7 +5906,7 @@
         <v>200</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" ht="14.15" spans="1:3">
@@ -5879,7 +5917,7 @@
         <v>200</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" ht="14.15" spans="1:3">
@@ -5890,7 +5928,7 @@
         <v>200</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" ht="14.15" spans="1:3">
@@ -5901,7 +5939,7 @@
         <v>200</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" ht="14.15" spans="1:3">
@@ -5912,7 +5950,7 @@
         <v>200</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" ht="14.15" spans="1:3">
@@ -5923,7 +5961,7 @@
         <v>200</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" ht="14.15" spans="1:3">
@@ -5934,7 +5972,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" ht="14.15" spans="1:3">
@@ -5945,7 +5983,7 @@
         <v>200</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" ht="14.15" spans="1:3">
@@ -5956,7 +5994,7 @@
         <v>200</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" ht="14.15" spans="1:3">
@@ -5967,7 +6005,7 @@
         <v>200</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" ht="14.15" spans="1:3">
@@ -5978,7 +6016,7 @@
         <v>200</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" ht="14.15" spans="1:3">
@@ -5989,7 +6027,7 @@
         <v>200</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" ht="14.15" spans="1:3">
@@ -6000,7 +6038,7 @@
         <v>200</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="14.15" spans="1:3">
@@ -6011,7 +6049,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="14.15" spans="1:3">
@@ -6022,7 +6060,7 @@
         <v>200</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="14.15" spans="1:3">
@@ -6033,7 +6071,7 @@
         <v>200</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" ht="14.15" spans="1:3">
@@ -6044,7 +6082,7 @@
         <v>200</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="14.15" spans="1:3">
@@ -6055,7 +6093,7 @@
         <v>200</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="14.15" spans="1:3">
@@ -6066,7 +6104,7 @@
         <v>200</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" ht="14.15" spans="1:3">
@@ -6077,7 +6115,7 @@
         <v>200</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" ht="14.15" spans="1:3">
@@ -6088,7 +6126,7 @@
         <v>200</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" ht="14.15" spans="1:3">
@@ -6099,7 +6137,7 @@
         <v>200</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" ht="14.15" spans="1:3">
@@ -6110,7 +6148,7 @@
         <v>200</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" ht="14.15" spans="1:3">
@@ -6121,7 +6159,7 @@
         <v>200</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" ht="14.15" spans="1:3">
@@ -6132,7 +6170,7 @@
         <v>200</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" ht="14.15" spans="1:3">
@@ -6143,7 +6181,7 @@
         <v>200</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" ht="14.15" spans="1:3">
@@ -6154,7 +6192,7 @@
         <v>200</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" ht="14.15" spans="1:3">
@@ -6165,7 +6203,7 @@
         <v>200</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" ht="14.15" spans="1:3">
@@ -6176,7 +6214,7 @@
         <v>200</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" ht="14.15" spans="1:3">
@@ -6187,7 +6225,7 @@
         <v>200</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" ht="14.15" spans="1:3">
@@ -6198,7 +6236,7 @@
         <v>200</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" ht="14.15" spans="1:3">
@@ -6209,7 +6247,7 @@
         <v>200</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" ht="14.15" spans="1:3">
@@ -6220,7 +6258,7 @@
         <v>200</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" ht="14.15" spans="1:3">
@@ -6231,7 +6269,7 @@
         <v>200</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" ht="14.15" spans="1:3">
@@ -6242,7 +6280,7 @@
         <v>200</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" ht="14.15" spans="1:3">
@@ -6253,7 +6291,7 @@
         <v>200</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" ht="14.15" spans="1:3">
@@ -6264,7 +6302,7 @@
         <v>200</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" ht="14.15" spans="1:3">
@@ -6275,7 +6313,7 @@
         <v>200</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" ht="14.15" spans="1:3">
@@ -6286,7 +6324,7 @@
         <v>200</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/~Documents/api-error.xlsx
+++ b/~Documents/api-error.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15638" activeTab="1"/>
+    <workbookView windowHeight="15638" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="baseline">[1]stop_request!$A$3:$A$22</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="199">
   <si>
     <t>Outcome Matrix</t>
   </si>
@@ -245,6 +246,18 @@
     <t>Rejected</t>
   </si>
   <si>
+    <t>Application Messages:</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Error Number</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
     <t>Invalid Order ID</t>
   </si>
   <si>
@@ -257,19 +270,13 @@
     <t>Order not found for Request: ${request.clientOrderId || request.orderId}</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Canceled</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>Queued</t>
-  </si>
-  <si>
-    <t>Stops</t>
+    <t>Malformed Stop Request: Missing required identification details</t>
+  </si>
+  <si>
+    <t>Stop Request Submission Denied: No open position or existing stop request</t>
+  </si>
+  <si>
+    <t>Stop Order not found for Request: ${request.clientOrderId || request.orderId}</t>
   </si>
   <si>
     <t>System Level Errors:</t>
@@ -480,6 +487,144 @@
   </si>
   <si>
     <t>The order has been canceled.</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>instId</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Instrument ID, e.g. BTC-USDT</t>
+  </si>
+  <si>
+    <t>marginMode</t>
+  </si>
+  <si>
+    <t>Margin mode</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>isolated</t>
+  </si>
+  <si>
+    <t>positionSide</t>
+  </si>
+  <si>
+    <t>Position side</t>
+  </si>
+  <si>
+    <t>Default net for One-way Mode</t>
+  </si>
+  <si>
+    <t>long or short for Hedge Mode. It must be sent in Hedge Mode.</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Order side, buy sell</t>
+  </si>
+  <si>
+    <t>tpTriggerPrice</t>
+  </si>
+  <si>
+    <t>Take-profit trigger price</t>
+  </si>
+  <si>
+    <t>If you fill in this parameter, you should fill in the tpOrderPrice as well.</t>
+  </si>
+  <si>
+    <t>tpOrderPrice</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Take-profit order price.</t>
+  </si>
+  <si>
+    <t>If you fill in this parameter, you should fill in the tpTriggerPrice as well.</t>
+  </si>
+  <si>
+    <t>If the price is -1, take-profit will be executed at the market price.</t>
+  </si>
+  <si>
+    <t>slTriggerPrice</t>
+  </si>
+  <si>
+    <t>Stop-loss trigger price</t>
+  </si>
+  <si>
+    <t>If you fill in this parameter, you should fill in the slOrderPrice as well.</t>
+  </si>
+  <si>
+    <t>slOrderPrice</t>
+  </si>
+  <si>
+    <t>Stop-loss order price.</t>
+  </si>
+  <si>
+    <t>If you fill in this parameter, you should fill in the slTriggerPrice as well.</t>
+  </si>
+  <si>
+    <t>If the price is -1, stop-loss will be executed at the market price.</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>If the quantity is -1, it means entire positions</t>
+  </si>
+  <si>
+    <t>reduceOnly</t>
+  </si>
+  <si>
+    <t>Whether orders can only reduce in position size.</t>
+  </si>
+  <si>
+    <t>Valid options: true or false. The default value is false.</t>
+  </si>
+  <si>
+    <t>When reduceOnly = true and the opposite order size exceeds the position size. The position will be fully closed, and no new position will be opened.</t>
+  </si>
+  <si>
+    <t>clientOrderId</t>
+  </si>
+  <si>
+    <t>Client Order ID as assigned by the client</t>
+  </si>
+  <si>
+    <t>A combination of case-sensitive alphanumerics, all numbers, or all letters of up to 32 characters.</t>
+  </si>
+  <si>
+    <t>brokerId</t>
+  </si>
+  <si>
+    <t>Broker ID provided by BloFin.</t>
+  </si>
+  <si>
+    <t>A combination of case-sensitive alphanumerics, all numbers, or all letters of up to 16 characters.</t>
   </si>
 </sst>
 </file>
@@ -487,9 +632,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -532,55 +677,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,28 +709,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -648,7 +749,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,14 +793,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,6 +841,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -708,7 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,37 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,13 +889,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,13 +931,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,13 +955,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,49 +991,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,6 +1723,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1588,6 +1742,45 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1608,44 +1801,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1660,102 +1820,87 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1764,78 +1909,93 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="60" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2079,6 +2239,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2421,129 +2584,129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H171" sqref="H171"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79259259259259" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="2" width="19.8666666666667" customWidth="1"/>
-    <col min="3" max="7" width="14.5407407407407" style="3" customWidth="1"/>
-    <col min="8" max="8" width="93.1185185185185" style="3" customWidth="1"/>
-    <col min="9" max="11" width="14.5407407407407" style="3" customWidth="1"/>
+    <col min="3" max="7" width="14.5407407407407" style="8" customWidth="1"/>
+    <col min="8" max="8" width="93.1185185185185" style="8" customWidth="1"/>
+    <col min="9" max="11" width="14.5407407407407" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:11">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" ht="49" customHeight="1" spans="1:11">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="40" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="65">
         <v>0</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="M6">
@@ -2552,2934 +2715,2880 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="43" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="67">
         <v>312</v>
       </c>
-      <c r="J7" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="63"/>
+      <c r="J7" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="68"/>
     </row>
     <row r="8" customFormat="1" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="44" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="67">
         <v>315</v>
       </c>
-      <c r="J8" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="63"/>
+      <c r="J8" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="68"/>
     </row>
     <row r="9" customFormat="1" spans="1:11">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="45" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="65"/>
+      <c r="J9" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="70"/>
     </row>
     <row r="10" customFormat="1" spans="1:11">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="46" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="8">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="46" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="8">
         <v>402</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="63"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" customFormat="1" spans="1:11">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="46" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="8">
         <v>404</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="63"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" customFormat="1" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="49" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="67"/>
+      <c r="J13" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" customFormat="1" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="51" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="73">
         <v>0</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="43" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="62">
-        <v>200</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="63"/>
+      <c r="I15" s="67">
+        <v>200</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="68"/>
     </row>
     <row r="16" customFormat="1" spans="1:11">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="44" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="67">
         <v>315</v>
       </c>
-      <c r="J16" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="63"/>
+      <c r="J16" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="68"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="46" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="8">
         <v>402</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="63"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" customFormat="1" spans="1:11">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="46" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="8">
         <v>404</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="63"/>
+      <c r="J18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="68"/>
     </row>
     <row r="19" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="54" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="71"/>
+      <c r="J19" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="56" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="72">
+      <c r="H20" s="62"/>
+      <c r="I20" s="77">
         <v>0</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="28"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="43" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="62">
+      <c r="H21" s="49"/>
+      <c r="I21" s="67">
         <v>201</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="63"/>
+      <c r="K21" s="68"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="28"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="62" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="63"/>
+      <c r="J22" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="68"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="28"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="46" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="3">
+      <c r="H23" s="52"/>
+      <c r="I23" s="8">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="63"/>
+      <c r="K23" s="68"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="28"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="46" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="63"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="8">
+        <v>200</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="3">
+      <c r="H25" s="52"/>
+      <c r="I25" s="8">
         <v>404</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="63"/>
+      <c r="J25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="68"/>
     </row>
     <row r="26" ht="14.85" spans="1:11">
-      <c r="A26" s="31"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="70" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="59"/>
+      <c r="I26" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="71"/>
+      <c r="J26" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="40" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="60">
+      <c r="H27" s="46"/>
+      <c r="I27" s="65">
         <v>0</v>
       </c>
-      <c r="J27" s="60" t="s">
+      <c r="J27" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="61" t="s">
+      <c r="K27" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="28"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="43" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="62">
+      <c r="H28" s="49"/>
+      <c r="I28" s="67">
         <v>201</v>
       </c>
-      <c r="J28" s="62" t="s">
+      <c r="J28" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="63"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="28"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="62" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="63"/>
+      <c r="J29" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="28"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="46" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="3">
+      <c r="H30" s="52"/>
+      <c r="I30" s="8">
         <v>0</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="63"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="28"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="46" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="3">
-        <v>200</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="63"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="8">
+        <v>200</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="68"/>
     </row>
     <row r="32" ht="14.85" spans="1:11">
-      <c r="A32" s="31"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="70" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="59"/>
+      <c r="I32" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="71"/>
+      <c r="J32" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="76"/>
     </row>
     <row r="33" customFormat="1" spans="1:11">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="40" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="60">
+      <c r="H33" s="46"/>
+      <c r="I33" s="65">
         <v>0</v>
       </c>
-      <c r="J33" s="60" t="s">
+      <c r="J33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="61" t="s">
+      <c r="K33" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:11">
-      <c r="A34" s="28"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="43" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="62">
+      <c r="H34" s="49"/>
+      <c r="I34" s="67">
         <v>201</v>
       </c>
-      <c r="J34" s="62" t="s">
+      <c r="J34" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="63"/>
+      <c r="K34" s="68"/>
     </row>
     <row r="35" customFormat="1" spans="1:11">
-      <c r="A35" s="28"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="62" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="49"/>
+      <c r="I35" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="63"/>
+      <c r="J35" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="68"/>
     </row>
     <row r="36" customFormat="1" spans="1:11">
-      <c r="A36" s="28"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="46" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="3">
+      <c r="H36" s="52"/>
+      <c r="I36" s="8">
         <v>0</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="63"/>
+      <c r="K36" s="68"/>
     </row>
     <row r="37" customFormat="1" spans="1:11">
-      <c r="A37" s="28"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="46" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="3">
-        <v>200</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="63"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="8">
+        <v>200</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="68"/>
     </row>
     <row r="38" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A38" s="31"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="70" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="59"/>
+      <c r="I38" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="71"/>
+      <c r="J38" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="76"/>
     </row>
     <row r="39" customFormat="1" spans="1:11">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="51" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="68">
+      <c r="I39" s="73">
         <v>0</v>
       </c>
-      <c r="J39" s="68" t="s">
+      <c r="J39" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="69" t="s">
+      <c r="K39" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:11">
-      <c r="A40" s="28"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="43" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="62">
-        <v>200</v>
-      </c>
-      <c r="J40" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="63"/>
+      <c r="I40" s="67">
+        <v>200</v>
+      </c>
+      <c r="J40" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="68"/>
     </row>
     <row r="41" customFormat="1" spans="1:11">
-      <c r="A41" s="28"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="46" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="H41" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="8">
         <v>402</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="63"/>
+      <c r="K41" s="68"/>
     </row>
     <row r="42" customFormat="1" spans="1:11">
-      <c r="A42" s="28"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="46" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="8">
         <v>404</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="63"/>
+      <c r="J42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="68"/>
     </row>
     <row r="43" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A43" s="31"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="54" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="70" t="s">
+      <c r="I43" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="71"/>
+      <c r="J43" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="76"/>
     </row>
     <row r="44" customFormat="1" spans="1:11">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="43" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="I44" s="62">
+      <c r="I44" s="67">
         <v>410</v>
       </c>
-      <c r="J44" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="61" t="s">
+      <c r="J44" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:11">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="43" t="s">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="62">
+      <c r="H45" s="49"/>
+      <c r="I45" s="67">
         <v>0</v>
       </c>
-      <c r="J45" s="62" t="s">
+      <c r="J45" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="63"/>
+      <c r="K45" s="68"/>
     </row>
     <row r="46" customFormat="1" spans="1:11">
-      <c r="A46" s="28"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="43" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="62">
+      <c r="H46" s="49"/>
+      <c r="I46" s="67">
         <v>201</v>
       </c>
-      <c r="J46" s="62" t="s">
+      <c r="J46" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="63"/>
+      <c r="K46" s="68"/>
     </row>
     <row r="47" customFormat="1" spans="1:11">
-      <c r="A47" s="28"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="62" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="49"/>
+      <c r="I47" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="63"/>
+      <c r="J47" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="68"/>
     </row>
     <row r="48" customFormat="1" spans="1:11">
-      <c r="A48" s="28"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="46" t="s">
+      <c r="A48" s="33"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="47"/>
-      <c r="I48" s="3">
+      <c r="H48" s="52"/>
+      <c r="I48" s="8">
         <v>402</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K48" s="63"/>
+      <c r="K48" s="68"/>
     </row>
     <row r="49" customFormat="1" spans="1:11">
-      <c r="A49" s="28"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="46" t="s">
+      <c r="A49" s="33"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="47"/>
-      <c r="I49" s="3">
+      <c r="H49" s="52"/>
+      <c r="I49" s="8">
         <v>404</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="63"/>
+      <c r="J49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="68"/>
     </row>
     <row r="50" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A50" s="31"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="70" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="59"/>
+      <c r="I50" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="71"/>
+      <c r="J50" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="76"/>
     </row>
     <row r="51" customFormat="1" spans="1:11">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="43" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="62">
+      <c r="H51" s="49"/>
+      <c r="I51" s="67">
         <v>411</v>
       </c>
-      <c r="J51" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="61" t="s">
+      <c r="J51" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:11">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="43" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="62">
+      <c r="H52" s="49"/>
+      <c r="I52" s="67">
         <v>0</v>
       </c>
-      <c r="J52" s="62" t="s">
+      <c r="J52" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="63"/>
+      <c r="K52" s="68"/>
     </row>
     <row r="53" customFormat="1" spans="1:11">
-      <c r="A53" s="28"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="43" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="44"/>
-      <c r="I53" s="62">
+      <c r="H53" s="49"/>
+      <c r="I53" s="67">
         <v>201</v>
       </c>
-      <c r="J53" s="62" t="s">
+      <c r="J53" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="63"/>
+      <c r="K53" s="68"/>
     </row>
     <row r="54" customFormat="1" spans="1:11">
-      <c r="A54" s="28"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="62" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="49"/>
+      <c r="I54" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J54" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="63"/>
+      <c r="J54" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="68"/>
     </row>
     <row r="55" customFormat="1" spans="1:11">
-      <c r="A55" s="28"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="46" t="s">
+      <c r="A55" s="33"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="47"/>
-      <c r="I55" s="3">
+      <c r="H55" s="52"/>
+      <c r="I55" s="8">
         <v>402</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K55" s="63"/>
+      <c r="K55" s="68"/>
     </row>
     <row r="56" customFormat="1" spans="1:11">
-      <c r="A56" s="28"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="46" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="47"/>
-      <c r="I56" s="3">
+      <c r="H56" s="52"/>
+      <c r="I56" s="8">
         <v>404</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="63"/>
+      <c r="J56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="68"/>
     </row>
     <row r="57" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A57" s="31"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="54"/>
-      <c r="I57" s="70" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="59"/>
+      <c r="I57" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="71"/>
+      <c r="J57" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="76"/>
     </row>
     <row r="58" customFormat="1" spans="1:11">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="40" t="s">
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="60">
+      <c r="H58" s="46"/>
+      <c r="I58" s="65">
         <v>0</v>
       </c>
-      <c r="J58" s="60" t="s">
+      <c r="J58" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="61" t="s">
+      <c r="K58" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:11">
-      <c r="A59" s="28"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="43" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="44"/>
-      <c r="I59" s="62">
+      <c r="H59" s="49"/>
+      <c r="I59" s="67">
         <v>201</v>
       </c>
-      <c r="J59" s="62" t="s">
+      <c r="J59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="63"/>
+      <c r="K59" s="68"/>
     </row>
     <row r="60" customFormat="1" spans="1:11">
-      <c r="A60" s="28"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="44"/>
-      <c r="I60" s="62" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="49"/>
+      <c r="I60" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="63"/>
+      <c r="J60" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="68"/>
     </row>
     <row r="61" customFormat="1" spans="1:11">
-      <c r="A61" s="28"/>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="46" t="s">
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="47"/>
-      <c r="I61" s="3">
+      <c r="H61" s="52"/>
+      <c r="I61" s="8">
         <v>0</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="63"/>
+      <c r="K61" s="68"/>
     </row>
     <row r="62" customFormat="1" spans="1:11">
-      <c r="A62" s="28"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="46" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="47"/>
-      <c r="I62" s="3">
-        <v>200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="63"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="8">
+        <v>200</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="68"/>
     </row>
     <row r="63" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A63" s="31"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="54"/>
-      <c r="I63" s="70" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="59"/>
+      <c r="I63" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="71"/>
+      <c r="J63" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="76"/>
     </row>
     <row r="64" customFormat="1" spans="1:11">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="40" t="s">
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="60">
+      <c r="H64" s="46"/>
+      <c r="I64" s="65">
         <v>0</v>
       </c>
-      <c r="J64" s="60" t="s">
+      <c r="J64" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K64" s="61" t="s">
+      <c r="K64" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:11">
-      <c r="A65" s="28"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="43" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="44"/>
-      <c r="I65" s="62">
+      <c r="H65" s="49"/>
+      <c r="I65" s="67">
         <v>201</v>
       </c>
-      <c r="J65" s="62" t="s">
+      <c r="J65" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K65" s="63"/>
+      <c r="K65" s="68"/>
     </row>
     <row r="66" customFormat="1" spans="1:11">
-      <c r="A66" s="28"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="44"/>
-      <c r="I66" s="62" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="49"/>
+      <c r="I66" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J66" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="63"/>
+      <c r="J66" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="68"/>
     </row>
     <row r="67" customFormat="1" spans="1:11">
-      <c r="A67" s="28"/>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="46" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="47"/>
-      <c r="I67" s="3">
+      <c r="H67" s="52"/>
+      <c r="I67" s="8">
         <v>0</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="63"/>
+      <c r="K67" s="68"/>
     </row>
     <row r="68" customFormat="1" spans="1:11">
-      <c r="A68" s="28"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="46" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="3">
-        <v>200</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="63"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="8">
+        <v>200</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="68"/>
     </row>
     <row r="69" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A69" s="31"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="54"/>
-      <c r="I69" s="70" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="59"/>
+      <c r="I69" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J69" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="71"/>
+      <c r="J69" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="76"/>
     </row>
     <row r="70" customFormat="1" spans="1:11">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="40" t="s">
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="41" t="s">
+      <c r="H70" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="60">
+      <c r="I70" s="65">
         <v>415</v>
       </c>
-      <c r="J70" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="61" t="s">
+      <c r="J70" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="66" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:11">
-      <c r="A71" s="35"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="43" t="s">
+      <c r="A71" s="40"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="44"/>
-      <c r="I71" s="62">
+      <c r="H71" s="49"/>
+      <c r="I71" s="67">
         <v>0</v>
       </c>
-      <c r="J71" s="62" t="s">
+      <c r="J71" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K71" s="63"/>
+      <c r="K71" s="68"/>
     </row>
     <row r="72" customFormat="1" spans="1:11">
-      <c r="A72" s="28"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="43" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="44"/>
-      <c r="I72" s="62">
+      <c r="H72" s="49"/>
+      <c r="I72" s="67">
         <v>201</v>
       </c>
-      <c r="J72" s="62" t="s">
+      <c r="J72" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="K72" s="63"/>
+      <c r="K72" s="68"/>
     </row>
     <row r="73" customFormat="1" spans="1:11">
-      <c r="A73" s="28"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="44"/>
-      <c r="I73" s="62" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="49"/>
+      <c r="I73" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" s="63"/>
+      <c r="J73" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="68"/>
     </row>
     <row r="74" customFormat="1" spans="1:11">
-      <c r="A74" s="28"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="46" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="47"/>
-      <c r="I74" s="3">
+      <c r="H74" s="52"/>
+      <c r="I74" s="8">
         <v>402</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K74" s="63"/>
+      <c r="K74" s="68"/>
     </row>
     <row r="75" customFormat="1" spans="1:11">
-      <c r="A75" s="28"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="46" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H75" s="47"/>
-      <c r="I75" s="3">
+      <c r="H75" s="52"/>
+      <c r="I75" s="8">
         <v>404</v>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="63"/>
+      <c r="J75" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="68"/>
     </row>
     <row r="76" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A76" s="31"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="54"/>
-      <c r="I76" s="70" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="59"/>
+      <c r="I76" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="71"/>
+      <c r="J76" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="76"/>
     </row>
     <row r="77" customFormat="1" spans="1:11">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="40" t="s">
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="61" t="s">
+      <c r="H77" s="46"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="66" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:11">
-      <c r="A78" s="74"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="43" t="s">
+      <c r="A78" s="79"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="44"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62" t="s">
+      <c r="H78" s="49"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="63"/>
+      <c r="K78" s="68"/>
     </row>
     <row r="79" customFormat="1" spans="1:11">
-      <c r="A79" s="74"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="43" t="s">
+      <c r="A79" s="79"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="44"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62" t="s">
+      <c r="H79" s="49"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K79" s="63"/>
+      <c r="K79" s="68"/>
     </row>
     <row r="80" customFormat="1" spans="1:11">
-      <c r="A80" s="74"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="44"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="63"/>
+      <c r="A80" s="79"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="49"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="68"/>
     </row>
     <row r="81" customFormat="1" spans="1:11">
-      <c r="A81" s="74"/>
-      <c r="B81" s="30" t="s">
+      <c r="A81" s="79"/>
+      <c r="B81" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="46" t="s">
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H81" s="47" t="s">
+      <c r="H81" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="8">
         <v>412</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="63"/>
+      <c r="J81" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="68"/>
     </row>
     <row r="82" customFormat="1" spans="1:11">
-      <c r="A82" s="74"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="46" t="s">
+      <c r="A82" s="79"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="47" t="s">
+      <c r="H82" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="8">
         <v>201</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K82" s="63"/>
+      <c r="K82" s="68"/>
     </row>
     <row r="83" customFormat="1" spans="1:11">
-      <c r="A83" s="74"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="47" t="s">
+      <c r="A83" s="79"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="8">
         <v>412</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="63"/>
+      <c r="J83" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="68"/>
     </row>
     <row r="84" customFormat="1" spans="1:11">
-      <c r="A84" s="74"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="47" t="s">
+      <c r="A84" s="79"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="63"/>
+      <c r="J84" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="68"/>
     </row>
     <row r="85" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A85" s="75"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="54" t="s">
+      <c r="A85" s="80"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="I85" s="70" t="s">
+      <c r="I85" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" s="71"/>
+      <c r="J85" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="76"/>
     </row>
     <row r="86" customFormat="1" spans="1:11">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="40" t="s">
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H86" s="41" t="s">
+      <c r="H86" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I86" s="60">
+      <c r="I86" s="65">
         <v>414</v>
       </c>
-      <c r="J86" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" s="61" t="s">
+      <c r="J86" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="66" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:11">
-      <c r="A87" s="35"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="43" t="s">
+      <c r="A87" s="40"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="44"/>
-      <c r="I87" s="62">
+      <c r="H87" s="49"/>
+      <c r="I87" s="67">
         <v>0</v>
       </c>
-      <c r="J87" s="62" t="s">
+      <c r="J87" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K87" s="63"/>
+      <c r="K87" s="68"/>
     </row>
     <row r="88" customFormat="1" spans="1:11">
-      <c r="A88" s="28"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="43" t="s">
+      <c r="A88" s="33"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H88" s="44"/>
-      <c r="I88" s="62">
-        <v>200</v>
-      </c>
-      <c r="J88" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" s="63"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="67">
+        <v>200</v>
+      </c>
+      <c r="J88" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="68"/>
     </row>
     <row r="89" customFormat="1" spans="1:11">
-      <c r="A89" s="28"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="44"/>
-      <c r="I89" s="62" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="49"/>
+      <c r="I89" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J89" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" s="63"/>
+      <c r="J89" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="68"/>
     </row>
     <row r="90" customFormat="1" spans="1:11">
-      <c r="A90" s="28"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="46" t="s">
+      <c r="A90" s="33"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="47"/>
-      <c r="I90" s="3">
+      <c r="H90" s="52"/>
+      <c r="I90" s="8">
         <v>402</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K90" s="63"/>
+      <c r="K90" s="68"/>
     </row>
     <row r="91" customFormat="1" spans="1:11">
-      <c r="A91" s="28"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="46" t="s">
+      <c r="A91" s="33"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H91" s="47"/>
-      <c r="I91" s="3">
+      <c r="H91" s="52"/>
+      <c r="I91" s="8">
         <v>404</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K91" s="63"/>
+      <c r="J91" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="68"/>
     </row>
     <row r="92" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A92" s="31"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="54"/>
-      <c r="I92" s="70" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="59"/>
+      <c r="I92" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J92" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="71"/>
+      <c r="J92" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="76"/>
     </row>
     <row r="93" customFormat="1" spans="1:11">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="40" t="s">
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="41"/>
-      <c r="I93" s="60">
+      <c r="H93" s="46"/>
+      <c r="I93" s="65">
         <v>0</v>
       </c>
-      <c r="J93" s="60" t="s">
+      <c r="J93" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K93" s="61" t="s">
+      <c r="K93" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:11">
-      <c r="A94" s="28"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="43" t="s">
+      <c r="A94" s="33"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H94" s="44"/>
-      <c r="I94" s="62">
+      <c r="H94" s="49"/>
+      <c r="I94" s="67">
         <v>201</v>
       </c>
-      <c r="J94" s="62" t="s">
+      <c r="J94" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="K94" s="63"/>
+      <c r="K94" s="68"/>
     </row>
     <row r="95" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A95" s="31"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="80"/>
-      <c r="I95" s="81" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="85"/>
+      <c r="I95" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J95" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="71"/>
+      <c r="J95" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="76"/>
     </row>
     <row r="96" customFormat="1" spans="1:11">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="56" t="s">
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H96" s="57" t="s">
+      <c r="H96" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I96" s="72">
+      <c r="I96" s="77">
         <v>413</v>
       </c>
-      <c r="J96" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="63" t="s">
+      <c r="J96" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="68" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:11">
-      <c r="A97" s="35"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="43" t="s">
+      <c r="A97" s="40"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H97" s="44"/>
-      <c r="I97" s="62">
+      <c r="H97" s="49"/>
+      <c r="I97" s="67">
         <v>0</v>
       </c>
-      <c r="J97" s="62" t="s">
+      <c r="J97" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K97" s="63"/>
+      <c r="K97" s="68"/>
     </row>
     <row r="98" customFormat="1" spans="1:11">
-      <c r="A98" s="28"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="43" t="s">
+      <c r="A98" s="33"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H98" s="44"/>
-      <c r="I98" s="62">
-        <v>200</v>
-      </c>
-      <c r="J98" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K98" s="63"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="67">
+        <v>200</v>
+      </c>
+      <c r="J98" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="68"/>
     </row>
     <row r="99" customFormat="1" spans="1:11">
-      <c r="A99" s="28"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" s="44"/>
-      <c r="I99" s="62" t="s">
+      <c r="A99" s="33"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="49"/>
+      <c r="I99" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J99" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K99" s="63"/>
+      <c r="J99" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="68"/>
     </row>
     <row r="100" customFormat="1" spans="1:11">
-      <c r="A100" s="28"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="46" t="s">
+      <c r="A100" s="33"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H100" s="47"/>
-      <c r="I100" s="3">
+      <c r="H100" s="52"/>
+      <c r="I100" s="8">
         <v>402</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K100" s="63"/>
+      <c r="K100" s="68"/>
     </row>
     <row r="101" customFormat="1" spans="1:11">
-      <c r="A101" s="28"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="46" t="s">
+      <c r="A101" s="33"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H101" s="47"/>
-      <c r="I101" s="3">
+      <c r="H101" s="52"/>
+      <c r="I101" s="8">
         <v>404</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" s="63"/>
+      <c r="J101" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="68"/>
     </row>
     <row r="102" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A102" s="31"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" s="54"/>
-      <c r="I102" s="70" t="s">
+      <c r="A102" s="36"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="59"/>
+      <c r="I102" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J102" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102" s="71"/>
+      <c r="J102" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="76"/>
     </row>
     <row r="103" customFormat="1" spans="1:11">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="56" t="s">
+      <c r="C103" s="31"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H103" s="57" t="s">
+      <c r="H103" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I103" s="72">
+      <c r="I103" s="77">
         <v>411</v>
       </c>
-      <c r="J103" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="K103" s="63" t="s">
+      <c r="J103" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:11">
-      <c r="A104" s="35"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="43" t="s">
+      <c r="A104" s="40"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H104" s="44"/>
-      <c r="I104" s="62">
+      <c r="H104" s="49"/>
+      <c r="I104" s="67">
         <v>0</v>
       </c>
-      <c r="J104" s="62" t="s">
+      <c r="J104" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K104" s="63"/>
+      <c r="K104" s="68"/>
     </row>
     <row r="105" customFormat="1" spans="1:11">
-      <c r="A105" s="28"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="43" t="s">
+      <c r="A105" s="33"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="44"/>
-      <c r="I105" s="62">
+      <c r="H105" s="49"/>
+      <c r="I105" s="67">
         <v>201</v>
       </c>
-      <c r="J105" s="62" t="s">
+      <c r="J105" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K105" s="63"/>
+      <c r="K105" s="68"/>
     </row>
     <row r="106" customFormat="1" spans="1:11">
-      <c r="A106" s="28"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" s="44"/>
-      <c r="I106" s="62" t="s">
+      <c r="A106" s="33"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="49"/>
+      <c r="I106" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J106" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K106" s="63"/>
+      <c r="J106" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="68"/>
     </row>
     <row r="107" customFormat="1" spans="1:11">
-      <c r="A107" s="28"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="46" t="s">
+      <c r="A107" s="33"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H107" s="47"/>
-      <c r="I107" s="3">
+      <c r="H107" s="52"/>
+      <c r="I107" s="8">
         <v>402</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="J107" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="63"/>
+      <c r="K107" s="68"/>
     </row>
     <row r="108" customFormat="1" spans="1:11">
-      <c r="A108" s="28"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="46" t="s">
+      <c r="A108" s="33"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H108" s="47"/>
-      <c r="I108" s="3">
+      <c r="H108" s="52"/>
+      <c r="I108" s="8">
         <v>404</v>
       </c>
-      <c r="J108" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K108" s="63"/>
+      <c r="J108" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="68"/>
     </row>
     <row r="109" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A109" s="31"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" s="54"/>
-      <c r="I109" s="70" t="s">
+      <c r="A109" s="36"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="59"/>
+      <c r="I109" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J109" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K109" s="71"/>
+      <c r="J109" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="76"/>
     </row>
     <row r="110" customFormat="1" spans="1:11">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="40" t="s">
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H110" s="41"/>
-      <c r="I110" s="60">
+      <c r="H110" s="46"/>
+      <c r="I110" s="65">
         <v>0</v>
       </c>
-      <c r="J110" s="60" t="s">
+      <c r="J110" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K110" s="82" t="s">
+      <c r="K110" s="87" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:11">
-      <c r="A111" s="28"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="43" t="s">
+      <c r="A111" s="33"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H111" s="44"/>
-      <c r="I111" s="62">
+      <c r="H111" s="49"/>
+      <c r="I111" s="67">
         <v>201</v>
       </c>
-      <c r="J111" s="62" t="s">
+      <c r="J111" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K111" s="63"/>
+      <c r="K111" s="68"/>
     </row>
     <row r="112" customFormat="1" spans="1:11">
-      <c r="A112" s="28"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" s="44"/>
-      <c r="I112" s="62" t="s">
+      <c r="A112" s="33"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="49"/>
+      <c r="I112" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J112" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K112" s="63"/>
+      <c r="J112" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="68"/>
     </row>
     <row r="113" customFormat="1" spans="1:11">
-      <c r="A113" s="28"/>
-      <c r="B113" s="11" t="s">
+      <c r="A113" s="33"/>
+      <c r="B113" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="46" t="s">
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H113" s="47"/>
-      <c r="I113" s="3">
+      <c r="H113" s="52"/>
+      <c r="I113" s="8">
         <v>0</v>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="J113" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="63"/>
+      <c r="K113" s="68"/>
     </row>
     <row r="114" customFormat="1" spans="1:11">
-      <c r="A114" s="28"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="46"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="46" t="s">
+      <c r="A114" s="33"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H114" s="47"/>
-      <c r="I114" s="3">
-        <v>200</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K114" s="63"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="8">
+        <v>200</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="68"/>
     </row>
     <row r="115" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A115" s="31"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="46"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" s="54"/>
-      <c r="I115" s="70" t="s">
+      <c r="A115" s="36"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="59"/>
+      <c r="I115" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J115" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K115" s="71"/>
+      <c r="J115" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="76"/>
     </row>
     <row r="116" customFormat="1" spans="1:11">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="40" t="s">
+      <c r="C116" s="13"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="41"/>
-      <c r="I116" s="60">
+      <c r="H116" s="46"/>
+      <c r="I116" s="65">
         <v>0</v>
       </c>
-      <c r="J116" s="60" t="s">
+      <c r="J116" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K116" s="61" t="s">
+      <c r="K116" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:11">
-      <c r="A117" s="28"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="43" t="s">
+      <c r="A117" s="33"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H117" s="44"/>
-      <c r="I117" s="62">
+      <c r="H117" s="49"/>
+      <c r="I117" s="67">
         <v>201</v>
       </c>
-      <c r="J117" s="62" t="s">
+      <c r="J117" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K117" s="63"/>
+      <c r="K117" s="68"/>
     </row>
     <row r="118" customFormat="1" spans="1:11">
-      <c r="A118" s="28"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" s="44"/>
-      <c r="I118" s="62" t="s">
+      <c r="A118" s="33"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="49"/>
+      <c r="I118" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J118" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" s="63"/>
+      <c r="J118" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="68"/>
     </row>
     <row r="119" customFormat="1" spans="1:11">
-      <c r="A119" s="28"/>
-      <c r="B119" s="11" t="s">
+      <c r="A119" s="33"/>
+      <c r="B119" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="46"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="46" t="s">
+      <c r="C119" s="19"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H119" s="47"/>
-      <c r="I119" s="3">
+      <c r="H119" s="52"/>
+      <c r="I119" s="8">
         <v>0</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="J119" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K119" s="63"/>
+      <c r="K119" s="68"/>
     </row>
     <row r="120" customFormat="1" spans="1:11">
-      <c r="A120" s="28"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="46"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="46" t="s">
+      <c r="A120" s="33"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H120" s="47"/>
-      <c r="I120" s="3">
-        <v>200</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K120" s="63"/>
+      <c r="H120" s="52"/>
+      <c r="I120" s="8">
+        <v>200</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" s="68"/>
     </row>
     <row r="121" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A121" s="31"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" s="54"/>
-      <c r="I121" s="70" t="s">
+      <c r="A121" s="36"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="59"/>
+      <c r="I121" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J121" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K121" s="71"/>
+      <c r="J121" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="76"/>
     </row>
     <row r="122" customFormat="1" spans="1:11">
-      <c r="A122" s="32" t="s">
+      <c r="A122" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="40" t="s">
+      <c r="C122" s="13"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H122" s="41"/>
-      <c r="I122" s="60">
+      <c r="H122" s="46"/>
+      <c r="I122" s="65">
         <v>0</v>
       </c>
-      <c r="J122" s="60" t="s">
+      <c r="J122" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K122" s="61" t="s">
+      <c r="K122" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:11">
-      <c r="A123" s="28"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="43" t="s">
+      <c r="A123" s="33"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="44"/>
-      <c r="I123" s="62">
-        <v>200</v>
-      </c>
-      <c r="J123" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K123" s="63"/>
+      <c r="H123" s="49"/>
+      <c r="I123" s="67">
+        <v>200</v>
+      </c>
+      <c r="J123" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="68"/>
     </row>
     <row r="124" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A124" s="28"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" s="44"/>
-      <c r="I124" s="62" t="s">
+      <c r="A124" s="33"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="49"/>
+      <c r="I124" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J124" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K124" s="63"/>
+      <c r="J124" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="68"/>
     </row>
     <row r="125" customFormat="1" spans="1:11">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="40" t="s">
+      <c r="C125" s="13"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="41"/>
-      <c r="I125" s="60">
+      <c r="H125" s="46"/>
+      <c r="I125" s="65">
         <v>0</v>
       </c>
-      <c r="J125" s="60" t="s">
+      <c r="J125" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K125" s="61" t="s">
+      <c r="K125" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="126" customFormat="1" spans="1:11">
-      <c r="A126" s="28"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="43" t="s">
+      <c r="A126" s="33"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="44"/>
-      <c r="I126" s="62">
+      <c r="H126" s="49"/>
+      <c r="I126" s="67">
         <v>201</v>
       </c>
-      <c r="J126" s="62" t="s">
+      <c r="J126" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K126" s="63"/>
+      <c r="K126" s="68"/>
     </row>
     <row r="127" customFormat="1" spans="1:11">
-      <c r="A127" s="28"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H127" s="44"/>
-      <c r="I127" s="62" t="s">
+      <c r="A127" s="33"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="49"/>
+      <c r="I127" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J127" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K127" s="63"/>
+      <c r="J127" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="68"/>
     </row>
     <row r="128" customFormat="1" spans="1:11">
-      <c r="A128" s="28"/>
-      <c r="B128" s="11" t="s">
+      <c r="A128" s="33"/>
+      <c r="B128" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="46"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="46" t="s">
+      <c r="C128" s="19"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H128" s="47"/>
-      <c r="I128" s="3">
+      <c r="H128" s="52"/>
+      <c r="I128" s="8">
         <v>0</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="J128" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K128" s="63"/>
+      <c r="K128" s="68"/>
     </row>
     <row r="129" customFormat="1" spans="1:11">
-      <c r="A129" s="28"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="46"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="46" t="s">
+      <c r="A129" s="33"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="51"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H129" s="47"/>
-      <c r="I129" s="3">
-        <v>200</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K129" s="63"/>
+      <c r="H129" s="52"/>
+      <c r="I129" s="8">
+        <v>200</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" s="68"/>
     </row>
     <row r="130" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A130" s="31"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="46"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" s="54"/>
-      <c r="I130" s="70" t="s">
+      <c r="A130" s="36"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="51"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="59"/>
+      <c r="I130" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J130" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K130" s="71"/>
+      <c r="J130" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="76"/>
     </row>
     <row r="131" customFormat="1" spans="1:11">
-      <c r="A131" s="32" t="s">
+      <c r="A131" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="40" t="s">
+      <c r="C131" s="13"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H131" s="41"/>
-      <c r="I131" s="60">
+      <c r="H131" s="46"/>
+      <c r="I131" s="65">
         <v>0</v>
       </c>
-      <c r="J131" s="60" t="s">
+      <c r="J131" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K131" s="61" t="s">
+      <c r="K131" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:11">
-      <c r="A132" s="28"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="43" t="s">
+      <c r="A132" s="33"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="44"/>
-      <c r="I132" s="62">
+      <c r="H132" s="49"/>
+      <c r="I132" s="67">
         <v>201</v>
       </c>
-      <c r="J132" s="62" t="s">
+      <c r="J132" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K132" s="63"/>
+      <c r="K132" s="68"/>
     </row>
     <row r="133" customFormat="1" spans="1:11">
-      <c r="A133" s="28"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" s="44"/>
-      <c r="I133" s="62" t="s">
+      <c r="A133" s="33"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="49"/>
+      <c r="I133" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J133" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K133" s="63"/>
+      <c r="J133" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" s="68"/>
     </row>
     <row r="134" customFormat="1" spans="1:11">
-      <c r="A134" s="28"/>
-      <c r="B134" s="11" t="s">
+      <c r="A134" s="33"/>
+      <c r="B134" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="46"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="46" t="s">
+      <c r="C134" s="19"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H134" s="47"/>
-      <c r="I134" s="3">
+      <c r="H134" s="52"/>
+      <c r="I134" s="8">
         <v>0</v>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="J134" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K134" s="63"/>
+      <c r="K134" s="68"/>
     </row>
     <row r="135" customFormat="1" spans="1:11">
-      <c r="A135" s="28"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="46"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="46" t="s">
+      <c r="A135" s="33"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="51"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="47"/>
-      <c r="I135" s="3">
-        <v>200</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K135" s="63"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="8">
+        <v>200</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K135" s="68"/>
     </row>
     <row r="136" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A136" s="31"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" s="54"/>
-      <c r="I136" s="70" t="s">
+      <c r="A136" s="36"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="58"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="59"/>
+      <c r="I136" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J136" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K136" s="71"/>
+      <c r="J136" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" s="76"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="83" t="s">
+      <c r="A138" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B138" s="83" t="s">
+      <c r="B138" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5" t="s">
+      <c r="D138" s="10"/>
+      <c r="E138" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5" t="s">
+      <c r="F138" s="10"/>
+      <c r="G138" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="84" t="s">
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B139" s="84" t="s">
+      <c r="B139" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="8">
         <v>501</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="89"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="8">
+        <v>502</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="89"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="8">
+        <v>503</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="89"/>
+      <c r="B142" s="89"/>
+      <c r="C142" s="8">
+        <v>504</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="89"/>
+      <c r="B143" s="89"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="B144" s="89"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145" s="90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="8">
         <v>451</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="84"/>
-      <c r="B140" s="84"/>
-      <c r="C140" s="3">
-        <v>502</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="C146" s="89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" s="8">
         <v>452</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="84"/>
-      <c r="B141" s="84"/>
-      <c r="C141" s="3">
-        <v>503</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="C147" s="89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="8">
         <v>453</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="84"/>
-      <c r="B142" s="84"/>
-      <c r="C142" s="3">
-        <v>504</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" s="3">
+      <c r="C148" s="89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="8">
         <v>454</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="B143" s="84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="84"/>
-      <c r="B144" s="84"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145" s="84" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="84"/>
-      <c r="B146" s="84"/>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147" s="84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="84"/>
-      <c r="B148" s="84"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B149" s="84" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="84"/>
-      <c r="B150" s="84"/>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="84" t="s">
+      <c r="C149" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="B151" s="84" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="84"/>
-      <c r="B152" s="84"/>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154" s="83" t="s">
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="8">
+        <v>455</v>
+      </c>
+      <c r="C150" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B154" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="B155" s="84" t="s">
-        <v>71</v>
-      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="8">
+        <v>456</v>
+      </c>
+      <c r="C151" s="89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="8">
+        <v>457</v>
+      </c>
+      <c r="C152" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="89"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="89"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="89"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="84"/>
-      <c r="B156" s="84"/>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="B157" s="84" t="s">
-        <v>76</v>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="88" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="84"/>
-      <c r="B158" s="84"/>
+      <c r="A158">
+        <v>601</v>
+      </c>
+      <c r="B158" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B159" s="84" t="s">
-        <v>77</v>
+      <c r="A159">
+        <v>602</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="84"/>
-      <c r="B160" s="84"/>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B161" s="84" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="84"/>
-      <c r="B162" s="84"/>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="B163" s="84" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="84"/>
-      <c r="B164" s="84"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167">
-        <v>601</v>
-      </c>
-      <c r="B167" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168">
-        <v>602</v>
-      </c>
-      <c r="B168" t="s">
-        <v>83</v>
+      <c r="A160">
+        <v>603</v>
+      </c>
+      <c r="B160" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="86">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:K3"/>
@@ -5487,9 +5596,6 @@
     <mergeCell ref="C138:D138"/>
     <mergeCell ref="E138:F138"/>
     <mergeCell ref="G138:K138"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="G154:K154"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A19"/>
     <mergeCell ref="A20:A26"/>
@@ -5511,17 +5617,7 @@
     <mergeCell ref="A122:A124"/>
     <mergeCell ref="A125:A130"/>
     <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A139:A143"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -5555,17 +5651,7 @@
     <mergeCell ref="B128:B130"/>
     <mergeCell ref="B131:B133"/>
     <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B139:B143"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="K10:K13"/>
     <mergeCell ref="K14:K19"/>
@@ -5600,7 +5686,7 @@
   <sheetPr/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -5613,718 +5699,718 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.15" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2" ht="14.15" spans="1:3">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>400</v>
       </c>
-      <c r="B2" s="2">
-        <v>200</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
+      <c r="B2" s="7">
+        <v>200</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="14.15" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>401</v>
       </c>
-      <c r="B3" s="2">
-        <v>200</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
+      <c r="B3" s="7">
+        <v>200</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="14.15" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>500</v>
       </c>
-      <c r="B4" s="2">
-        <v>200</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
+      <c r="B4" s="7">
+        <v>200</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="14.15" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>404</v>
       </c>
-      <c r="B5" s="2">
-        <v>200</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>90</v>
+      <c r="B5" s="7">
+        <v>200</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="14.15" spans="1:3">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>405</v>
       </c>
-      <c r="B6" s="2">
-        <v>200</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>91</v>
+      <c r="B6" s="7">
+        <v>200</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="14.15" spans="1:3">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>406</v>
       </c>
-      <c r="B7" s="2">
-        <v>200</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>92</v>
+      <c r="B7" s="7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="14.15" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>429</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>429</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>93</v>
+      <c r="C8" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" ht="14.15" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
-        <v>200</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>94</v>
+      <c r="B9" s="7">
+        <v>200</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="14.15" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>200</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
+      <c r="B10" s="7">
+        <v>200</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" ht="14.15" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>152001</v>
       </c>
-      <c r="B11" s="2">
-        <v>200</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>96</v>
+      <c r="B11" s="7">
+        <v>200</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" ht="14.15" spans="1:3">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>152002</v>
       </c>
-      <c r="B12" s="2">
-        <v>200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>97</v>
+      <c r="B12" s="7">
+        <v>200</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" ht="14.15" spans="1:3">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>152003</v>
       </c>
-      <c r="B13" s="2">
-        <v>200</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>98</v>
+      <c r="B13" s="7">
+        <v>200</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" ht="14.15" spans="1:3">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>152004</v>
       </c>
-      <c r="B14" s="2">
-        <v>200</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>99</v>
+      <c r="B14" s="7">
+        <v>200</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" ht="14.15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>152005</v>
       </c>
-      <c r="B15" s="2">
-        <v>200</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>100</v>
+      <c r="B15" s="7">
+        <v>200</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="14.15" spans="1:3">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>152006</v>
       </c>
-      <c r="B16" s="2">
-        <v>200</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>101</v>
+      <c r="B16" s="7">
+        <v>200</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" ht="14.15" spans="1:3">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>152007</v>
       </c>
-      <c r="B17" s="2">
-        <v>200</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>102</v>
+      <c r="B17" s="7">
+        <v>200</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" ht="14.15" spans="1:3">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>152008</v>
       </c>
-      <c r="B18" s="2">
-        <v>200</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>103</v>
+      <c r="B18" s="7">
+        <v>200</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" ht="14.15" spans="1:3">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>152009</v>
       </c>
-      <c r="B19" s="2">
-        <v>200</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>104</v>
+      <c r="B19" s="7">
+        <v>200</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" ht="14.15" spans="1:3">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>152011</v>
       </c>
-      <c r="B20" s="2">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>105</v>
+      <c r="B20" s="7">
+        <v>200</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" ht="14.15" spans="1:3">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>152012</v>
       </c>
-      <c r="B21" s="2">
-        <v>200</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>106</v>
+      <c r="B21" s="7">
+        <v>200</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" ht="14.15" spans="1:3">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>152013</v>
       </c>
-      <c r="B22" s="2">
-        <v>200</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>107</v>
+      <c r="B22" s="7">
+        <v>200</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" ht="14.15" spans="1:3">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>152014</v>
       </c>
-      <c r="B23" s="2">
-        <v>200</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>108</v>
+      <c r="B23" s="7">
+        <v>200</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" ht="14.15" spans="1:3">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>152015</v>
       </c>
-      <c r="B24" s="2">
-        <v>200</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>109</v>
+      <c r="B24" s="7">
+        <v>200</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" ht="14.15" spans="1:3">
-      <c r="A25" s="2">
+      <c r="A25" s="7">
         <v>152401</v>
       </c>
-      <c r="B25" s="2">
-        <v>200</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>110</v>
+      <c r="B25" s="7">
+        <v>200</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" ht="14.15" spans="1:3">
-      <c r="A26" s="2">
+      <c r="A26" s="7">
         <v>152402</v>
       </c>
-      <c r="B26" s="2">
-        <v>200</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>111</v>
+      <c r="B26" s="7">
+        <v>200</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" ht="14.15" spans="1:3">
-      <c r="A27" s="2">
+      <c r="A27" s="7">
         <v>152404</v>
       </c>
-      <c r="B27" s="2">
-        <v>200</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>112</v>
+      <c r="B27" s="7">
+        <v>200</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" ht="14.15" spans="1:3">
-      <c r="A28" s="2">
+      <c r="A28" s="7">
         <v>152405</v>
       </c>
-      <c r="B28" s="2">
-        <v>200</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
+      <c r="B28" s="7">
+        <v>200</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" ht="14.15" spans="1:3">
-      <c r="A29" s="2">
+      <c r="A29" s="7">
         <v>152406</v>
       </c>
-      <c r="B29" s="2">
-        <v>200</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>114</v>
+      <c r="B29" s="7">
+        <v>200</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" ht="14.15" spans="1:3">
-      <c r="A30" s="2">
+      <c r="A30" s="7">
         <v>152407</v>
       </c>
-      <c r="B30" s="2">
-        <v>200</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>115</v>
+      <c r="B30" s="7">
+        <v>200</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="31" ht="14.15" spans="1:3">
-      <c r="A31" s="2">
+      <c r="A31" s="7">
         <v>152408</v>
       </c>
-      <c r="B31" s="2">
-        <v>200</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>116</v>
+      <c r="B31" s="7">
+        <v>200</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" ht="14.15" spans="1:3">
-      <c r="A32" s="2">
+      <c r="A32" s="7">
         <v>152409</v>
       </c>
-      <c r="B32" s="2">
-        <v>200</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>117</v>
+      <c r="B32" s="7">
+        <v>200</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" ht="14.15" spans="1:3">
-      <c r="A33" s="2">
+      <c r="A33" s="7">
         <v>152410</v>
       </c>
-      <c r="B33" s="2">
-        <v>200</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>118</v>
+      <c r="B33" s="7">
+        <v>200</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" ht="14.15" spans="1:3">
-      <c r="A34" s="2">
+      <c r="A34" s="7">
         <v>150003</v>
       </c>
-      <c r="B34" s="2">
-        <v>200</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>119</v>
+      <c r="B34" s="7">
+        <v>200</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="35" ht="14.15" spans="1:3">
-      <c r="A35" s="2">
+      <c r="A35" s="7">
         <v>150004</v>
       </c>
-      <c r="B35" s="2">
-        <v>200</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>120</v>
+      <c r="B35" s="7">
+        <v>200</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" ht="14.15" spans="1:3">
-      <c r="A36" s="2">
+      <c r="A36" s="7">
         <v>542</v>
       </c>
-      <c r="B36" s="2">
-        <v>200</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>121</v>
+      <c r="B36" s="7">
+        <v>200</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="37" ht="14.15" spans="1:3">
-      <c r="A37" s="2">
+      <c r="A37" s="7">
         <v>102002</v>
       </c>
-      <c r="B37" s="2">
-        <v>200</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>122</v>
+      <c r="B37" s="7">
+        <v>200</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="38" ht="14.15" spans="1:3">
-      <c r="A38" s="2">
+      <c r="A38" s="7">
         <v>102005</v>
       </c>
-      <c r="B38" s="2">
-        <v>200</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>123</v>
+      <c r="B38" s="7">
+        <v>200</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" ht="14.15" spans="1:3">
-      <c r="A39" s="2">
+      <c r="A39" s="7">
         <v>102014</v>
       </c>
-      <c r="B39" s="2">
-        <v>200</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>124</v>
+      <c r="B39" s="7">
+        <v>200</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="14.15" spans="1:3">
-      <c r="A40" s="2">
+      <c r="A40" s="7">
         <v>102015</v>
       </c>
-      <c r="B40" s="2">
-        <v>200</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>125</v>
+      <c r="B40" s="7">
+        <v>200</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="14.15" spans="1:3">
-      <c r="A41" s="2">
+      <c r="A41" s="7">
         <v>102022</v>
       </c>
-      <c r="B41" s="2">
-        <v>200</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>126</v>
+      <c r="B41" s="7">
+        <v>200</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="42" ht="14.15" spans="1:3">
-      <c r="A42" s="2">
+      <c r="A42" s="7">
         <v>102037</v>
       </c>
-      <c r="B42" s="2">
-        <v>200</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>127</v>
+      <c r="B42" s="7">
+        <v>200</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="14.15" spans="1:3">
-      <c r="A43" s="2">
+      <c r="A43" s="7">
         <v>102038</v>
       </c>
-      <c r="B43" s="2">
-        <v>200</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>128</v>
+      <c r="B43" s="7">
+        <v>200</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" ht="14.15" spans="1:3">
-      <c r="A44" s="2">
+      <c r="A44" s="7">
         <v>102039</v>
       </c>
-      <c r="B44" s="2">
-        <v>200</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>129</v>
+      <c r="B44" s="7">
+        <v>200</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="14.15" spans="1:3">
-      <c r="A45" s="2">
+      <c r="A45" s="7">
         <v>102040</v>
       </c>
-      <c r="B45" s="2">
-        <v>200</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>130</v>
+      <c r="B45" s="7">
+        <v>200</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="46" ht="14.15" spans="1:3">
-      <c r="A46" s="2">
+      <c r="A46" s="7">
         <v>102047</v>
       </c>
-      <c r="B46" s="2">
-        <v>200</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>131</v>
+      <c r="B46" s="7">
+        <v>200</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="47" ht="14.15" spans="1:3">
-      <c r="A47" s="2">
+      <c r="A47" s="7">
         <v>102048</v>
       </c>
-      <c r="B47" s="2">
-        <v>200</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>132</v>
+      <c r="B47" s="7">
+        <v>200</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" ht="14.15" spans="1:3">
-      <c r="A48" s="2">
+      <c r="A48" s="7">
         <v>102049</v>
       </c>
-      <c r="B48" s="2">
-        <v>200</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>133</v>
+      <c r="B48" s="7">
+        <v>200</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49" ht="14.15" spans="1:3">
-      <c r="A49" s="2">
+      <c r="A49" s="7">
         <v>102050</v>
       </c>
-      <c r="B49" s="2">
-        <v>200</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>134</v>
+      <c r="B49" s="7">
+        <v>200</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="50" ht="14.15" spans="1:3">
-      <c r="A50" s="2">
+      <c r="A50" s="7">
         <v>80001</v>
       </c>
-      <c r="B50" s="2">
-        <v>200</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>135</v>
+      <c r="B50" s="7">
+        <v>200</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="51" ht="14.15" spans="1:3">
-      <c r="A51" s="2">
+      <c r="A51" s="7">
         <v>80006</v>
       </c>
-      <c r="B51" s="2">
-        <v>200</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>136</v>
+      <c r="B51" s="7">
+        <v>200</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="52" ht="14.15" spans="1:3">
-      <c r="A52" s="2">
+      <c r="A52" s="7">
         <v>102051</v>
       </c>
-      <c r="B52" s="2">
-        <v>200</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>137</v>
+      <c r="B52" s="7">
+        <v>200</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="53" ht="14.15" spans="1:3">
-      <c r="A53" s="2">
+      <c r="A53" s="7">
         <v>102052</v>
       </c>
-      <c r="B53" s="2">
-        <v>200</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>138</v>
+      <c r="B53" s="7">
+        <v>200</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="54" ht="14.15" spans="1:3">
-      <c r="A54" s="2">
+      <c r="A54" s="7">
         <v>102053</v>
       </c>
-      <c r="B54" s="2">
-        <v>200</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>139</v>
+      <c r="B54" s="7">
+        <v>200</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="55" ht="14.15" spans="1:3">
-      <c r="A55" s="2">
+      <c r="A55" s="7">
         <v>102054</v>
       </c>
-      <c r="B55" s="2">
-        <v>200</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>140</v>
+      <c r="B55" s="7">
+        <v>200</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" ht="14.15" spans="1:3">
-      <c r="A56" s="2">
+      <c r="A56" s="7">
         <v>102055</v>
       </c>
-      <c r="B56" s="2">
-        <v>200</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>141</v>
+      <c r="B56" s="7">
+        <v>200</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="57" ht="14.15" spans="1:3">
-      <c r="A57" s="2">
+      <c r="A57" s="7">
         <v>102064</v>
       </c>
-      <c r="B57" s="2">
-        <v>200</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>142</v>
+      <c r="B57" s="7">
+        <v>200</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="58" ht="14.15" spans="1:3">
-      <c r="A58" s="2">
+      <c r="A58" s="7">
         <v>102065</v>
       </c>
-      <c r="B58" s="2">
-        <v>200</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>143</v>
+      <c r="B58" s="7">
+        <v>200</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="59" ht="14.15" spans="1:3">
-      <c r="A59" s="2">
+      <c r="A59" s="7">
         <v>102068</v>
       </c>
-      <c r="B59" s="2">
-        <v>200</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>144</v>
+      <c r="B59" s="7">
+        <v>200</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60" ht="14.15" spans="1:3">
-      <c r="A60" s="2">
+      <c r="A60" s="7">
         <v>102089</v>
       </c>
-      <c r="B60" s="2">
-        <v>200</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>145</v>
+      <c r="B60" s="7">
+        <v>200</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="61" ht="14.15" spans="1:3">
-      <c r="A61" s="2">
+      <c r="A61" s="7">
         <v>103003</v>
       </c>
-      <c r="B61" s="2">
-        <v>200</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>146</v>
+      <c r="B61" s="7">
+        <v>200</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="62" ht="14.15" spans="1:3">
-      <c r="A62" s="2">
+      <c r="A62" s="7">
         <v>103013</v>
       </c>
-      <c r="B62" s="2">
-        <v>200</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>147</v>
+      <c r="B62" s="7">
+        <v>200</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="63" ht="14.15" spans="1:3">
-      <c r="A63" s="2">
+      <c r="A63" s="7">
         <v>110006</v>
       </c>
-      <c r="B63" s="2">
-        <v>200</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>148</v>
+      <c r="B63" s="7">
+        <v>200</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="64" ht="14.15" spans="1:3">
-      <c r="A64" s="2">
+      <c r="A64" s="7">
         <v>110019</v>
       </c>
-      <c r="B64" s="2">
-        <v>200</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>149</v>
+      <c r="B64" s="7">
+        <v>200</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="65" ht="14.15" spans="1:3">
-      <c r="A65" s="2">
+      <c r="A65" s="7">
         <v>1000</v>
       </c>
-      <c r="B65" s="2">
-        <v>200</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>150</v>
+      <c r="B65" s="7">
+        <v>200</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6334,4 +6420,361 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="A1:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79259259259259" defaultRowHeight="14.1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.0666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.5259259259259" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.15" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" ht="14.15" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" ht="14.15" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" ht="14.15" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" ht="14.15" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" ht="14.15" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" ht="14.15" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" ht="14.15" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" ht="14.15" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" ht="14.15" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" ht="14.15" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" ht="14.15" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" ht="14.15" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" ht="14.15" spans="1:4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" ht="14.15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" ht="14.15" spans="1:4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" ht="14.15" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" ht="14.15" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" ht="14.15" spans="1:4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" ht="14.15" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" ht="14.15" spans="1:4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" ht="14.15" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" ht="14.15" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" ht="28.25" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" ht="14.15" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" ht="14.15" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" ht="14.15" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" ht="14.15" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/~Documents/api-error.xlsx
+++ b/~Documents/api-error.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15638" activeTab="2"/>
+    <workbookView windowHeight="15638"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,10 +632,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -678,14 +678,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -693,15 +685,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -715,9 +700,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,19 +723,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,30 +738,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,9 +761,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,7 +841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +865,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,13 +895,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,61 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,13 +973,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,43 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,15 +1723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1751,37 +1742,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1804,8 +1765,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1820,87 +1796,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1909,68 +1909,68 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="60" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1980,23 +1980,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2586,127 +2574,127 @@
   <sheetPr/>
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79259259259259" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="2" width="19.8666666666667" customWidth="1"/>
-    <col min="3" max="7" width="14.5407407407407" style="8" customWidth="1"/>
-    <col min="8" max="8" width="93.1185185185185" style="8" customWidth="1"/>
-    <col min="9" max="11" width="14.5407407407407" style="8" customWidth="1"/>
+    <col min="3" max="7" width="14.5407407407407" style="1" customWidth="1"/>
+    <col min="8" max="8" width="93.1185185185185" style="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5407407407407" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:11">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:11">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:11">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" ht="49" customHeight="1" spans="1:11">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:13">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="45" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="61">
         <v>0</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="62" t="s">
         <v>17</v>
       </c>
       <c r="M6">
@@ -2715,2851 +2703,2851 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:11">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="48" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="63">
         <v>312</v>
       </c>
-      <c r="J7" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="68"/>
+      <c r="J7" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" customFormat="1" spans="1:11">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="49" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="63">
         <v>315</v>
       </c>
-      <c r="J8" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="68"/>
+      <c r="J8" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" customFormat="1" spans="1:11">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="50" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="70"/>
+      <c r="J9" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" customFormat="1" spans="1:11">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="51" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:11">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="51" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="1">
         <v>402</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="68"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" customFormat="1" spans="1:11">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="51" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="1">
         <v>404</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="68"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" customFormat="1" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="54" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="72"/>
+      <c r="J13" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="68"/>
     </row>
     <row r="14" customFormat="1" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="56" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="69">
         <v>0</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="70" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="48" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="67">
-        <v>200</v>
-      </c>
-      <c r="J15" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="68"/>
+      <c r="I15" s="63">
+        <v>200</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" customFormat="1" spans="1:11">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="49" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="63">
         <v>315</v>
       </c>
-      <c r="J16" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="68"/>
+      <c r="J16" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="51" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="1">
         <v>402</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="68"/>
+      <c r="K17" s="64"/>
     </row>
     <row r="18" customFormat="1" spans="1:11">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="51" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="1">
         <v>404</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="68"/>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="64"/>
     </row>
     <row r="19" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="59" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="76"/>
+      <c r="J19" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="72"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="61" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="77">
+      <c r="H20" s="58"/>
+      <c r="I20" s="73">
         <v>0</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="68" t="s">
+      <c r="K20" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="33"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="48" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="67">
+      <c r="H21" s="45"/>
+      <c r="I21" s="63">
         <v>201</v>
       </c>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="68"/>
+      <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="33"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="67" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="68"/>
+      <c r="J22" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="33"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="51" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="8">
+      <c r="H23" s="48"/>
+      <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="33"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="51" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="8">
-        <v>200</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="68"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="1">
+        <v>200</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="51" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="8">
+      <c r="H25" s="48"/>
+      <c r="I25" s="1">
         <v>404</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="68"/>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" ht="14.85" spans="1:11">
-      <c r="A26" s="36"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="75" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="55"/>
+      <c r="I26" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="76"/>
+      <c r="J26" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="72"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="45" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="65">
+      <c r="H27" s="42"/>
+      <c r="I27" s="61">
         <v>0</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="66" t="s">
+      <c r="K27" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="33"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="48" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="67">
+      <c r="H28" s="45"/>
+      <c r="I28" s="63">
         <v>201</v>
       </c>
-      <c r="J28" s="67" t="s">
+      <c r="J28" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="68"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="33"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="68"/>
+      <c r="J29" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="33"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="51" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="8">
+      <c r="H30" s="48"/>
+      <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="68"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="33"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="51" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="8">
-        <v>200</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="68"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="1">
+        <v>200</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" ht="14.85" spans="1:11">
-      <c r="A32" s="36"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="75" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="76"/>
+      <c r="J32" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" customFormat="1" spans="1:11">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="45" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="65">
+      <c r="H33" s="42"/>
+      <c r="I33" s="61">
         <v>0</v>
       </c>
-      <c r="J33" s="65" t="s">
+      <c r="J33" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="66" t="s">
+      <c r="K33" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:11">
-      <c r="A34" s="33"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="48" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="67">
+      <c r="H34" s="45"/>
+      <c r="I34" s="63">
         <v>201</v>
       </c>
-      <c r="J34" s="67" t="s">
+      <c r="J34" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="68"/>
+      <c r="K34" s="64"/>
     </row>
     <row r="35" customFormat="1" spans="1:11">
-      <c r="A35" s="33"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="67" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="45"/>
+      <c r="I35" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="68"/>
+      <c r="J35" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="64"/>
     </row>
     <row r="36" customFormat="1" spans="1:11">
-      <c r="A36" s="33"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="51" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="8">
+      <c r="H36" s="48"/>
+      <c r="I36" s="1">
         <v>0</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="68"/>
+      <c r="K36" s="64"/>
     </row>
     <row r="37" customFormat="1" spans="1:11">
-      <c r="A37" s="33"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="51" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="52"/>
-      <c r="I37" s="8">
-        <v>200</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="68"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="1">
+        <v>200</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="64"/>
     </row>
     <row r="38" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A38" s="36"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="75" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="55"/>
+      <c r="I38" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="76"/>
+      <c r="J38" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="72"/>
     </row>
     <row r="39" customFormat="1" spans="1:11">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="56" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="H39" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="73">
+      <c r="I39" s="69">
         <v>0</v>
       </c>
-      <c r="J39" s="73" t="s">
+      <c r="J39" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="74" t="s">
+      <c r="K39" s="70" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:11">
-      <c r="A40" s="33"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="48" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="67">
-        <v>200</v>
-      </c>
-      <c r="J40" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="68"/>
+      <c r="I40" s="63">
+        <v>200</v>
+      </c>
+      <c r="J40" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" customFormat="1" spans="1:11">
-      <c r="A41" s="33"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="51" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="52" t="s">
+      <c r="H41" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="1">
         <v>402</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="68"/>
+      <c r="K41" s="64"/>
     </row>
     <row r="42" customFormat="1" spans="1:11">
-      <c r="A42" s="33"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="51" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="64" t="s">
+      <c r="H42" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="1">
         <v>404</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="68"/>
+      <c r="J42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A43" s="36"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="59" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="75" t="s">
+      <c r="I43" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="76"/>
+      <c r="J43" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="72"/>
     </row>
     <row r="44" customFormat="1" spans="1:11">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="48" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="H44" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="I44" s="67">
+      <c r="I44" s="63">
         <v>410</v>
       </c>
-      <c r="J44" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="66" t="s">
+      <c r="J44" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:11">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="48" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="67">
+      <c r="H45" s="45"/>
+      <c r="I45" s="63">
         <v>0</v>
       </c>
-      <c r="J45" s="67" t="s">
+      <c r="J45" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="68"/>
+      <c r="K45" s="64"/>
     </row>
     <row r="46" customFormat="1" spans="1:11">
-      <c r="A46" s="33"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="48" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="67">
+      <c r="H46" s="45"/>
+      <c r="I46" s="63">
         <v>201</v>
       </c>
-      <c r="J46" s="67" t="s">
+      <c r="J46" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="68"/>
+      <c r="K46" s="64"/>
     </row>
     <row r="47" customFormat="1" spans="1:11">
-      <c r="A47" s="33"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="67" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="45"/>
+      <c r="I47" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="68"/>
+      <c r="J47" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" customFormat="1" spans="1:11">
-      <c r="A48" s="33"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="51" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="8">
+      <c r="H48" s="48"/>
+      <c r="I48" s="1">
         <v>402</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K48" s="68"/>
+      <c r="K48" s="64"/>
     </row>
     <row r="49" customFormat="1" spans="1:11">
-      <c r="A49" s="33"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="51" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="8">
+      <c r="H49" s="48"/>
+      <c r="I49" s="1">
         <v>404</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="68"/>
+      <c r="J49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="64"/>
     </row>
     <row r="50" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A50" s="36"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="59"/>
-      <c r="I50" s="75" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="55"/>
+      <c r="I50" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="76"/>
+      <c r="J50" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="72"/>
     </row>
     <row r="51" customFormat="1" spans="1:11">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="48" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="67">
+      <c r="H51" s="45"/>
+      <c r="I51" s="63">
         <v>411</v>
       </c>
-      <c r="J51" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="66" t="s">
+      <c r="J51" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:11">
-      <c r="A52" s="40"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="48" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="67">
+      <c r="H52" s="45"/>
+      <c r="I52" s="63">
         <v>0</v>
       </c>
-      <c r="J52" s="67" t="s">
+      <c r="J52" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="68"/>
+      <c r="K52" s="64"/>
     </row>
     <row r="53" customFormat="1" spans="1:11">
-      <c r="A53" s="33"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="48" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="49"/>
-      <c r="I53" s="67">
+      <c r="H53" s="45"/>
+      <c r="I53" s="63">
         <v>201</v>
       </c>
-      <c r="J53" s="67" t="s">
+      <c r="J53" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="68"/>
+      <c r="K53" s="64"/>
     </row>
     <row r="54" customFormat="1" spans="1:11">
-      <c r="A54" s="33"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="49"/>
-      <c r="I54" s="67" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="45"/>
+      <c r="I54" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J54" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="68"/>
+      <c r="J54" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="64"/>
     </row>
     <row r="55" customFormat="1" spans="1:11">
-      <c r="A55" s="33"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="51" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="8">
+      <c r="H55" s="48"/>
+      <c r="I55" s="1">
         <v>402</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K55" s="68"/>
+      <c r="K55" s="64"/>
     </row>
     <row r="56" customFormat="1" spans="1:11">
-      <c r="A56" s="33"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="51" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="8">
+      <c r="H56" s="48"/>
+      <c r="I56" s="1">
         <v>404</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="68"/>
+      <c r="J56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="64"/>
     </row>
     <row r="57" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A57" s="36"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="59"/>
-      <c r="I57" s="75" t="s">
+      <c r="A57" s="32"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="55"/>
+      <c r="I57" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="76"/>
+      <c r="J57" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="72"/>
     </row>
     <row r="58" customFormat="1" spans="1:11">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="45" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="46"/>
-      <c r="I58" s="65">
+      <c r="H58" s="42"/>
+      <c r="I58" s="61">
         <v>0</v>
       </c>
-      <c r="J58" s="65" t="s">
+      <c r="J58" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="66" t="s">
+      <c r="K58" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:11">
-      <c r="A59" s="33"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="48" t="s">
+      <c r="A59" s="29"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="49"/>
-      <c r="I59" s="67">
+      <c r="H59" s="45"/>
+      <c r="I59" s="63">
         <v>201</v>
       </c>
-      <c r="J59" s="67" t="s">
+      <c r="J59" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="68"/>
+      <c r="K59" s="64"/>
     </row>
     <row r="60" customFormat="1" spans="1:11">
-      <c r="A60" s="33"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="49"/>
-      <c r="I60" s="67" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="45"/>
+      <c r="I60" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="68"/>
+      <c r="J60" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="64"/>
     </row>
     <row r="61" customFormat="1" spans="1:11">
-      <c r="A61" s="33"/>
-      <c r="B61" s="16" t="s">
+      <c r="A61" s="29"/>
+      <c r="B61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="51" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="52"/>
-      <c r="I61" s="8">
+      <c r="H61" s="48"/>
+      <c r="I61" s="1">
         <v>0</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="68"/>
+      <c r="K61" s="64"/>
     </row>
     <row r="62" customFormat="1" spans="1:11">
-      <c r="A62" s="33"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="51" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="8">
-        <v>200</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="68"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="1">
+        <v>200</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="64"/>
     </row>
     <row r="63" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A63" s="36"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="75" t="s">
+      <c r="A63" s="32"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="55"/>
+      <c r="I63" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="76"/>
+      <c r="J63" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="72"/>
     </row>
     <row r="64" customFormat="1" spans="1:11">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="45" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="46"/>
-      <c r="I64" s="65">
+      <c r="H64" s="42"/>
+      <c r="I64" s="61">
         <v>0</v>
       </c>
-      <c r="J64" s="65" t="s">
+      <c r="J64" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K64" s="66" t="s">
+      <c r="K64" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:11">
-      <c r="A65" s="33"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="48" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="49"/>
-      <c r="I65" s="67">
+      <c r="H65" s="45"/>
+      <c r="I65" s="63">
         <v>201</v>
       </c>
-      <c r="J65" s="67" t="s">
+      <c r="J65" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K65" s="68"/>
+      <c r="K65" s="64"/>
     </row>
     <row r="66" customFormat="1" spans="1:11">
-      <c r="A66" s="33"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="49"/>
-      <c r="I66" s="67" t="s">
+      <c r="A66" s="29"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="45"/>
+      <c r="I66" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J66" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="68"/>
+      <c r="J66" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="64"/>
     </row>
     <row r="67" customFormat="1" spans="1:11">
-      <c r="A67" s="33"/>
-      <c r="B67" s="16" t="s">
+      <c r="A67" s="29"/>
+      <c r="B67" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="51" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="52"/>
-      <c r="I67" s="8">
+      <c r="H67" s="48"/>
+      <c r="I67" s="1">
         <v>0</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="68"/>
+      <c r="K67" s="64"/>
     </row>
     <row r="68" customFormat="1" spans="1:11">
-      <c r="A68" s="33"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="51" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="8">
-        <v>200</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="68"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="1">
+        <v>200</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="64"/>
     </row>
     <row r="69" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A69" s="36"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="59"/>
-      <c r="I69" s="75" t="s">
+      <c r="A69" s="32"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="55"/>
+      <c r="I69" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J69" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="76"/>
+      <c r="J69" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="72"/>
     </row>
     <row r="70" customFormat="1" spans="1:11">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="45" t="s">
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="65">
+      <c r="I70" s="61">
         <v>415</v>
       </c>
-      <c r="J70" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="66" t="s">
+      <c r="J70" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:11">
-      <c r="A71" s="40"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="48" t="s">
+      <c r="A71" s="36"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="49"/>
-      <c r="I71" s="67">
+      <c r="H71" s="45"/>
+      <c r="I71" s="63">
         <v>0</v>
       </c>
-      <c r="J71" s="67" t="s">
+      <c r="J71" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K71" s="68"/>
+      <c r="K71" s="64"/>
     </row>
     <row r="72" customFormat="1" spans="1:11">
-      <c r="A72" s="33"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="48" t="s">
+      <c r="A72" s="29"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="49"/>
-      <c r="I72" s="67">
+      <c r="H72" s="45"/>
+      <c r="I72" s="63">
         <v>201</v>
       </c>
-      <c r="J72" s="67" t="s">
+      <c r="J72" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="K72" s="68"/>
+      <c r="K72" s="64"/>
     </row>
     <row r="73" customFormat="1" spans="1:11">
-      <c r="A73" s="33"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="49"/>
-      <c r="I73" s="67" t="s">
+      <c r="A73" s="29"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="45"/>
+      <c r="I73" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" s="68"/>
+      <c r="J73" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="64"/>
     </row>
     <row r="74" customFormat="1" spans="1:11">
-      <c r="A74" s="33"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="51" t="s">
+      <c r="A74" s="29"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="52"/>
-      <c r="I74" s="8">
+      <c r="H74" s="48"/>
+      <c r="I74" s="1">
         <v>402</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K74" s="68"/>
+      <c r="K74" s="64"/>
     </row>
     <row r="75" customFormat="1" spans="1:11">
-      <c r="A75" s="33"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="51" t="s">
+      <c r="A75" s="29"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H75" s="52"/>
-      <c r="I75" s="8">
+      <c r="H75" s="48"/>
+      <c r="I75" s="1">
         <v>404</v>
       </c>
-      <c r="J75" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="68"/>
+      <c r="J75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="64"/>
     </row>
     <row r="76" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A76" s="36"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="59"/>
-      <c r="I76" s="75" t="s">
+      <c r="A76" s="32"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="55"/>
+      <c r="I76" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="76"/>
+      <c r="J76" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="72"/>
     </row>
     <row r="77" customFormat="1" spans="1:11">
-      <c r="A77" s="78" t="s">
+      <c r="A77" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="45" t="s">
+      <c r="C77" s="9"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H77" s="46"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="66" t="s">
+      <c r="H77" s="42"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:11">
-      <c r="A78" s="79"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="48" t="s">
+      <c r="A78" s="75"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="49"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67" t="s">
+      <c r="H78" s="45"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K78" s="68"/>
+      <c r="K78" s="64"/>
     </row>
     <row r="79" customFormat="1" spans="1:11">
-      <c r="A79" s="79"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="48" t="s">
+      <c r="A79" s="75"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="49"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67" t="s">
+      <c r="H79" s="45"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K79" s="68"/>
+      <c r="K79" s="64"/>
     </row>
     <row r="80" customFormat="1" spans="1:11">
-      <c r="A80" s="79"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="49"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="68"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="45"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="64"/>
     </row>
     <row r="81" customFormat="1" spans="1:11">
-      <c r="A81" s="79"/>
-      <c r="B81" s="35" t="s">
+      <c r="A81" s="75"/>
+      <c r="B81" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="51" t="s">
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H81" s="52" t="s">
+      <c r="H81" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="1">
         <v>412</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="68"/>
+      <c r="J81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="64"/>
     </row>
     <row r="82" customFormat="1" spans="1:11">
-      <c r="A82" s="79"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="51" t="s">
+      <c r="A82" s="75"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="52" t="s">
+      <c r="H82" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="1">
         <v>201</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K82" s="68"/>
+      <c r="K82" s="64"/>
     </row>
     <row r="83" customFormat="1" spans="1:11">
-      <c r="A83" s="79"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="52" t="s">
+      <c r="A83" s="75"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="1">
         <v>412</v>
       </c>
-      <c r="J83" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="68"/>
+      <c r="J83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="64"/>
     </row>
     <row r="84" customFormat="1" spans="1:11">
-      <c r="A84" s="79"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="52" t="s">
+      <c r="A84" s="75"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="68"/>
+      <c r="J84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="64"/>
     </row>
     <row r="85" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A85" s="80"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="59" t="s">
+      <c r="A85" s="76"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I85" s="75" t="s">
+      <c r="I85" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" s="76"/>
+      <c r="J85" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="72"/>
     </row>
     <row r="86" customFormat="1" spans="1:11">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="45" t="s">
+      <c r="C86" s="9"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H86" s="46" t="s">
+      <c r="H86" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="I86" s="65">
+      <c r="I86" s="61">
         <v>414</v>
       </c>
-      <c r="J86" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" s="66" t="s">
+      <c r="J86" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:11">
-      <c r="A87" s="40"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="48" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="49"/>
-      <c r="I87" s="67">
+      <c r="H87" s="45"/>
+      <c r="I87" s="63">
         <v>0</v>
       </c>
-      <c r="J87" s="67" t="s">
+      <c r="J87" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K87" s="68"/>
+      <c r="K87" s="64"/>
     </row>
     <row r="88" customFormat="1" spans="1:11">
-      <c r="A88" s="33"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="48" t="s">
+      <c r="A88" s="29"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H88" s="49"/>
-      <c r="I88" s="67">
-        <v>200</v>
-      </c>
-      <c r="J88" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" s="68"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="63">
+        <v>200</v>
+      </c>
+      <c r="J88" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="64"/>
     </row>
     <row r="89" customFormat="1" spans="1:11">
-      <c r="A89" s="33"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="49"/>
-      <c r="I89" s="67" t="s">
+      <c r="A89" s="29"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="45"/>
+      <c r="I89" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J89" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" s="68"/>
+      <c r="J89" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="64"/>
     </row>
     <row r="90" customFormat="1" spans="1:11">
-      <c r="A90" s="33"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="51" t="s">
+      <c r="A90" s="29"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="52"/>
-      <c r="I90" s="8">
+      <c r="H90" s="48"/>
+      <c r="I90" s="1">
         <v>402</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K90" s="68"/>
+      <c r="K90" s="64"/>
     </row>
     <row r="91" customFormat="1" spans="1:11">
-      <c r="A91" s="33"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="51" t="s">
+      <c r="A91" s="29"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H91" s="52"/>
-      <c r="I91" s="8">
+      <c r="H91" s="48"/>
+      <c r="I91" s="1">
         <v>404</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K91" s="68"/>
+      <c r="J91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="64"/>
     </row>
     <row r="92" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A92" s="36"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="59"/>
-      <c r="I92" s="75" t="s">
+      <c r="A92" s="32"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="55"/>
+      <c r="I92" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J92" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="76"/>
+      <c r="J92" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="72"/>
     </row>
     <row r="93" customFormat="1" spans="1:11">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="45" t="s">
+      <c r="C93" s="9"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="46"/>
-      <c r="I93" s="65">
+      <c r="H93" s="42"/>
+      <c r="I93" s="61">
         <v>0</v>
       </c>
-      <c r="J93" s="65" t="s">
+      <c r="J93" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K93" s="66" t="s">
+      <c r="K93" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:11">
-      <c r="A94" s="33"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="48" t="s">
+      <c r="A94" s="29"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="67">
+      <c r="H94" s="45"/>
+      <c r="I94" s="63">
         <v>201</v>
       </c>
-      <c r="J94" s="67" t="s">
+      <c r="J94" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="K94" s="68"/>
+      <c r="K94" s="64"/>
     </row>
     <row r="95" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A95" s="36"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="85"/>
-      <c r="I95" s="86" t="s">
+      <c r="A95" s="32"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="81"/>
+      <c r="I95" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="J95" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="76"/>
+      <c r="J95" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="72"/>
     </row>
     <row r="96" customFormat="1" spans="1:11">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="61" t="s">
+      <c r="C96" s="27"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H96" s="62" t="s">
+      <c r="H96" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I96" s="77">
+      <c r="I96" s="73">
         <v>413</v>
       </c>
-      <c r="J96" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="68" t="s">
+      <c r="J96" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:11">
-      <c r="A97" s="40"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="48" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="67">
+      <c r="H97" s="45"/>
+      <c r="I97" s="63">
         <v>0</v>
       </c>
-      <c r="J97" s="67" t="s">
+      <c r="J97" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K97" s="68"/>
+      <c r="K97" s="64"/>
     </row>
     <row r="98" customFormat="1" spans="1:11">
-      <c r="A98" s="33"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="48" t="s">
+      <c r="A98" s="29"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="67">
-        <v>200</v>
-      </c>
-      <c r="J98" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K98" s="68"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="63">
+        <v>200</v>
+      </c>
+      <c r="J98" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="64"/>
     </row>
     <row r="99" customFormat="1" spans="1:11">
-      <c r="A99" s="33"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="67" t="s">
+      <c r="A99" s="29"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="45"/>
+      <c r="I99" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J99" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K99" s="68"/>
+      <c r="J99" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="64"/>
     </row>
     <row r="100" customFormat="1" spans="1:11">
-      <c r="A100" s="33"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="51" t="s">
+      <c r="A100" s="29"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H100" s="52"/>
-      <c r="I100" s="8">
+      <c r="H100" s="48"/>
+      <c r="I100" s="1">
         <v>402</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J100" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K100" s="68"/>
+      <c r="K100" s="64"/>
     </row>
     <row r="101" customFormat="1" spans="1:11">
-      <c r="A101" s="33"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="51" t="s">
+      <c r="A101" s="29"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H101" s="52"/>
-      <c r="I101" s="8">
+      <c r="H101" s="48"/>
+      <c r="I101" s="1">
         <v>404</v>
       </c>
-      <c r="J101" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" s="68"/>
+      <c r="J101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="64"/>
     </row>
     <row r="102" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A102" s="36"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" s="59"/>
-      <c r="I102" s="75" t="s">
+      <c r="A102" s="32"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="55"/>
+      <c r="I102" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J102" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102" s="76"/>
+      <c r="J102" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="72"/>
     </row>
     <row r="103" customFormat="1" spans="1:11">
-      <c r="A103" s="40" t="s">
+      <c r="A103" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="61" t="s">
+      <c r="C103" s="27"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H103" s="62" t="s">
+      <c r="H103" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="I103" s="77">
+      <c r="I103" s="73">
         <v>411</v>
       </c>
-      <c r="J103" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="K103" s="68" t="s">
+      <c r="J103" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:11">
-      <c r="A104" s="40"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="48" t="s">
+      <c r="A104" s="36"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H104" s="49"/>
-      <c r="I104" s="67">
+      <c r="H104" s="45"/>
+      <c r="I104" s="63">
         <v>0</v>
       </c>
-      <c r="J104" s="67" t="s">
+      <c r="J104" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K104" s="68"/>
+      <c r="K104" s="64"/>
     </row>
     <row r="105" customFormat="1" spans="1:11">
-      <c r="A105" s="33"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="48" t="s">
+      <c r="A105" s="29"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H105" s="49"/>
-      <c r="I105" s="67">
+      <c r="H105" s="45"/>
+      <c r="I105" s="63">
         <v>201</v>
       </c>
-      <c r="J105" s="67" t="s">
+      <c r="J105" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K105" s="68"/>
+      <c r="K105" s="64"/>
     </row>
     <row r="106" customFormat="1" spans="1:11">
-      <c r="A106" s="33"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" s="49"/>
-      <c r="I106" s="67" t="s">
+      <c r="A106" s="29"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="45"/>
+      <c r="I106" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J106" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K106" s="68"/>
+      <c r="J106" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="64"/>
     </row>
     <row r="107" customFormat="1" spans="1:11">
-      <c r="A107" s="33"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="51" t="s">
+      <c r="A107" s="29"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H107" s="52"/>
-      <c r="I107" s="8">
+      <c r="H107" s="48"/>
+      <c r="I107" s="1">
         <v>402</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="J107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="68"/>
+      <c r="K107" s="64"/>
     </row>
     <row r="108" customFormat="1" spans="1:11">
-      <c r="A108" s="33"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="51" t="s">
+      <c r="A108" s="29"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H108" s="52"/>
-      <c r="I108" s="8">
+      <c r="H108" s="48"/>
+      <c r="I108" s="1">
         <v>404</v>
       </c>
-      <c r="J108" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K108" s="68"/>
+      <c r="J108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="64"/>
     </row>
     <row r="109" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A109" s="36"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" s="59"/>
-      <c r="I109" s="75" t="s">
+      <c r="A109" s="32"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="55"/>
+      <c r="I109" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J109" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K109" s="76"/>
+      <c r="J109" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="72"/>
     </row>
     <row r="110" customFormat="1" spans="1:11">
-      <c r="A110" s="37" t="s">
+      <c r="A110" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="45" t="s">
+      <c r="C110" s="9"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H110" s="46"/>
-      <c r="I110" s="65">
+      <c r="H110" s="42"/>
+      <c r="I110" s="61">
         <v>0</v>
       </c>
-      <c r="J110" s="65" t="s">
+      <c r="J110" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K110" s="87" t="s">
+      <c r="K110" s="83" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:11">
-      <c r="A111" s="33"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="48" t="s">
+      <c r="A111" s="29"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H111" s="49"/>
-      <c r="I111" s="67">
+      <c r="H111" s="45"/>
+      <c r="I111" s="63">
         <v>201</v>
       </c>
-      <c r="J111" s="67" t="s">
+      <c r="J111" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K111" s="68"/>
+      <c r="K111" s="64"/>
     </row>
     <row r="112" customFormat="1" spans="1:11">
-      <c r="A112" s="33"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" s="49"/>
-      <c r="I112" s="67" t="s">
+      <c r="A112" s="29"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="45"/>
+      <c r="I112" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J112" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K112" s="68"/>
+      <c r="J112" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="64"/>
     </row>
     <row r="113" customFormat="1" spans="1:11">
-      <c r="A113" s="33"/>
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="29"/>
+      <c r="B113" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="51" t="s">
+      <c r="C113" s="15"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H113" s="52"/>
-      <c r="I113" s="8">
+      <c r="H113" s="48"/>
+      <c r="I113" s="1">
         <v>0</v>
       </c>
-      <c r="J113" s="8" t="s">
+      <c r="J113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="68"/>
+      <c r="K113" s="64"/>
     </row>
     <row r="114" customFormat="1" spans="1:11">
-      <c r="A114" s="33"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="51" t="s">
+      <c r="A114" s="29"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H114" s="52"/>
-      <c r="I114" s="8">
-        <v>200</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K114" s="68"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="1">
+        <v>200</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="64"/>
     </row>
     <row r="115" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A115" s="36"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" s="59"/>
-      <c r="I115" s="75" t="s">
+      <c r="A115" s="32"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="55"/>
+      <c r="I115" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J115" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K115" s="76"/>
+      <c r="J115" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="72"/>
     </row>
     <row r="116" customFormat="1" spans="1:11">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="45" t="s">
+      <c r="C116" s="9"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="46"/>
-      <c r="I116" s="65">
+      <c r="H116" s="42"/>
+      <c r="I116" s="61">
         <v>0</v>
       </c>
-      <c r="J116" s="65" t="s">
+      <c r="J116" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K116" s="66" t="s">
+      <c r="K116" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:11">
-      <c r="A117" s="33"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="48" t="s">
+      <c r="A117" s="29"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H117" s="49"/>
-      <c r="I117" s="67">
+      <c r="H117" s="45"/>
+      <c r="I117" s="63">
         <v>201</v>
       </c>
-      <c r="J117" s="67" t="s">
+      <c r="J117" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K117" s="68"/>
+      <c r="K117" s="64"/>
     </row>
     <row r="118" customFormat="1" spans="1:11">
-      <c r="A118" s="33"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" s="49"/>
-      <c r="I118" s="67" t="s">
+      <c r="A118" s="29"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="45"/>
+      <c r="I118" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J118" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" s="68"/>
+      <c r="J118" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="64"/>
     </row>
     <row r="119" customFormat="1" spans="1:11">
-      <c r="A119" s="33"/>
-      <c r="B119" s="16" t="s">
+      <c r="A119" s="29"/>
+      <c r="B119" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="19"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="51" t="s">
+      <c r="C119" s="15"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H119" s="52"/>
-      <c r="I119" s="8">
+      <c r="H119" s="48"/>
+      <c r="I119" s="1">
         <v>0</v>
       </c>
-      <c r="J119" s="8" t="s">
+      <c r="J119" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K119" s="68"/>
+      <c r="K119" s="64"/>
     </row>
     <row r="120" customFormat="1" spans="1:11">
-      <c r="A120" s="33"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="51" t="s">
+      <c r="A120" s="29"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H120" s="52"/>
-      <c r="I120" s="8">
-        <v>200</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K120" s="68"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="1">
+        <v>200</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" s="64"/>
     </row>
     <row r="121" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A121" s="36"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" s="59"/>
-      <c r="I121" s="75" t="s">
+      <c r="A121" s="32"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="55"/>
+      <c r="I121" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J121" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K121" s="76"/>
+      <c r="J121" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="72"/>
     </row>
     <row r="122" customFormat="1" spans="1:11">
-      <c r="A122" s="37" t="s">
+      <c r="A122" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="45" t="s">
+      <c r="C122" s="9"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H122" s="46"/>
-      <c r="I122" s="65">
+      <c r="H122" s="42"/>
+      <c r="I122" s="61">
         <v>0</v>
       </c>
-      <c r="J122" s="65" t="s">
+      <c r="J122" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K122" s="66" t="s">
+      <c r="K122" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:11">
-      <c r="A123" s="33"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="48" t="s">
+      <c r="A123" s="29"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="49"/>
-      <c r="I123" s="67">
-        <v>200</v>
-      </c>
-      <c r="J123" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K123" s="68"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="63">
+        <v>200</v>
+      </c>
+      <c r="J123" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="64"/>
     </row>
     <row r="124" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A124" s="33"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" s="49"/>
-      <c r="I124" s="67" t="s">
+      <c r="A124" s="29"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="45"/>
+      <c r="I124" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J124" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K124" s="68"/>
+      <c r="J124" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="64"/>
     </row>
     <row r="125" customFormat="1" spans="1:11">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C125" s="13"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="45" t="s">
+      <c r="C125" s="9"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="46"/>
-      <c r="I125" s="65">
+      <c r="H125" s="42"/>
+      <c r="I125" s="61">
         <v>0</v>
       </c>
-      <c r="J125" s="65" t="s">
+      <c r="J125" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K125" s="66" t="s">
+      <c r="K125" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="126" customFormat="1" spans="1:11">
-      <c r="A126" s="33"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="48" t="s">
+      <c r="A126" s="29"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="49"/>
-      <c r="I126" s="67">
+      <c r="H126" s="45"/>
+      <c r="I126" s="63">
         <v>201</v>
       </c>
-      <c r="J126" s="67" t="s">
+      <c r="J126" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K126" s="68"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" customFormat="1" spans="1:11">
-      <c r="A127" s="33"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H127" s="49"/>
-      <c r="I127" s="67" t="s">
+      <c r="A127" s="29"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="45"/>
+      <c r="I127" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J127" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K127" s="68"/>
+      <c r="J127" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="64"/>
     </row>
     <row r="128" customFormat="1" spans="1:11">
-      <c r="A128" s="33"/>
-      <c r="B128" s="16" t="s">
+      <c r="A128" s="29"/>
+      <c r="B128" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C128" s="19"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="51"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="51" t="s">
+      <c r="C128" s="15"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H128" s="52"/>
-      <c r="I128" s="8">
+      <c r="H128" s="48"/>
+      <c r="I128" s="1">
         <v>0</v>
       </c>
-      <c r="J128" s="8" t="s">
+      <c r="J128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K128" s="68"/>
+      <c r="K128" s="64"/>
     </row>
     <row r="129" customFormat="1" spans="1:11">
-      <c r="A129" s="33"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="51"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="51" t="s">
+      <c r="A129" s="29"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H129" s="52"/>
-      <c r="I129" s="8">
-        <v>200</v>
-      </c>
-      <c r="J129" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K129" s="68"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="1">
+        <v>200</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" s="64"/>
     </row>
     <row r="130" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A130" s="36"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="51"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" s="59"/>
-      <c r="I130" s="75" t="s">
+      <c r="A130" s="32"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="55"/>
+      <c r="I130" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J130" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K130" s="76"/>
+      <c r="J130" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="72"/>
     </row>
     <row r="131" customFormat="1" spans="1:11">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="45" t="s">
+      <c r="C131" s="9"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H131" s="46"/>
-      <c r="I131" s="65">
+      <c r="H131" s="42"/>
+      <c r="I131" s="61">
         <v>0</v>
       </c>
-      <c r="J131" s="65" t="s">
+      <c r="J131" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K131" s="66" t="s">
+      <c r="K131" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:11">
-      <c r="A132" s="33"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="48" t="s">
+      <c r="A132" s="29"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="49"/>
-      <c r="I132" s="67">
+      <c r="H132" s="45"/>
+      <c r="I132" s="63">
         <v>201</v>
       </c>
-      <c r="J132" s="67" t="s">
+      <c r="J132" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K132" s="68"/>
+      <c r="K132" s="64"/>
     </row>
     <row r="133" customFormat="1" spans="1:11">
-      <c r="A133" s="33"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" s="49"/>
-      <c r="I133" s="67" t="s">
+      <c r="A133" s="29"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="45"/>
+      <c r="I133" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="J133" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K133" s="68"/>
+      <c r="J133" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" s="64"/>
     </row>
     <row r="134" customFormat="1" spans="1:11">
-      <c r="A134" s="33"/>
-      <c r="B134" s="16" t="s">
+      <c r="A134" s="29"/>
+      <c r="B134" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C134" s="19"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="51"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="51" t="s">
+      <c r="C134" s="15"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H134" s="52"/>
-      <c r="I134" s="8">
+      <c r="H134" s="48"/>
+      <c r="I134" s="1">
         <v>0</v>
       </c>
-      <c r="J134" s="8" t="s">
+      <c r="J134" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K134" s="68"/>
+      <c r="K134" s="64"/>
     </row>
     <row r="135" customFormat="1" spans="1:11">
-      <c r="A135" s="33"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="51"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="51" t="s">
+      <c r="A135" s="29"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="52"/>
-      <c r="I135" s="8">
-        <v>200</v>
-      </c>
-      <c r="J135" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K135" s="68"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="1">
+        <v>200</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K135" s="64"/>
     </row>
     <row r="136" customFormat="1" ht="14.85" spans="1:11">
-      <c r="A136" s="36"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="58"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" s="59"/>
-      <c r="I136" s="75" t="s">
+      <c r="A136" s="32"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="55"/>
+      <c r="I136" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J136" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K136" s="76"/>
+      <c r="J136" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" s="72"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="88" t="s">
+      <c r="A138" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B138" s="88" t="s">
+      <c r="B138" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10" t="s">
+      <c r="D138" s="6"/>
+      <c r="E138" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10" t="s">
+      <c r="F138" s="6"/>
+      <c r="G138" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="89" t="s">
+      <c r="A139" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B139" s="89" t="s">
+      <c r="B139" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="1">
         <v>501</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="89"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="8">
+      <c r="A140" s="85"/>
+      <c r="B140" s="85"/>
+      <c r="C140" s="1">
         <v>502</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="89"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="8">
+      <c r="A141" s="85"/>
+      <c r="B141" s="85"/>
+      <c r="C141" s="1">
         <v>503</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="89"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="8">
+      <c r="A142" s="85"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="1">
         <v>504</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="89"/>
-      <c r="B143" s="89"/>
+      <c r="A143" s="85"/>
+      <c r="B143" s="85"/>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="90" t="s">
+      <c r="A144" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B144" s="89"/>
+      <c r="B144" s="85"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C145" s="90" t="s">
+      <c r="C145" s="86" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B146" s="8">
+      <c r="A146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="1">
         <v>451</v>
       </c>
-      <c r="C146" s="89" t="s">
+      <c r="C146" s="85" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B147" s="8">
+      <c r="A147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" s="1">
         <v>452</v>
       </c>
-      <c r="C147" s="89" t="s">
+      <c r="C147" s="85" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B148" s="8">
+      <c r="A148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="1">
         <v>453</v>
       </c>
-      <c r="C148" s="89" t="s">
+      <c r="C148" s="85" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" s="8">
+      <c r="A149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="1">
         <v>454</v>
       </c>
-      <c r="C149" s="89" t="s">
+      <c r="C149" s="85" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B150" s="8">
+      <c r="A150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="1">
         <v>455</v>
       </c>
-      <c r="C150" s="89" t="s">
+      <c r="C150" s="85" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="8">
+      <c r="A151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="1">
         <v>456</v>
       </c>
-      <c r="C151" s="89" t="s">
+      <c r="C151" s="85" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B152" s="8">
+      <c r="A152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="1">
         <v>457</v>
       </c>
-      <c r="C152" s="89" t="s">
+      <c r="C152" s="85" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="89"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="85"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="89"/>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="85"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="89"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="85"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="88" t="s">
+      <c r="A157" s="84" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5699,717 +5687,717 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.15" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" ht="14.15" spans="1:3">
-      <c r="A2" s="7">
+      <c r="A2" s="3">
         <v>400</v>
       </c>
-      <c r="B2" s="7">
-        <v>200</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="3">
+        <v>200</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" ht="14.15" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>401</v>
       </c>
-      <c r="B3" s="7">
-        <v>200</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="3">
+        <v>200</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" ht="14.15" spans="1:3">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>500</v>
       </c>
-      <c r="B4" s="7">
-        <v>200</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" ht="14.15" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>404</v>
       </c>
-      <c r="B5" s="7">
-        <v>200</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="3">
+        <v>200</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" ht="14.15" spans="1:3">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>405</v>
       </c>
-      <c r="B6" s="7">
-        <v>200</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="3">
+        <v>200</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" ht="14.15" spans="1:3">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>406</v>
       </c>
-      <c r="B7" s="7">
-        <v>200</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="3">
+        <v>200</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" ht="14.15" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>429</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>429</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" ht="14.15" spans="1:3">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
-        <v>200</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="3">
+        <v>200</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" ht="14.15" spans="1:3">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="7">
-        <v>200</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="3">
+        <v>200</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" ht="14.15" spans="1:3">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>152001</v>
       </c>
-      <c r="B11" s="7">
-        <v>200</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="3">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" ht="14.15" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>152002</v>
       </c>
-      <c r="B12" s="7">
-        <v>200</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="3">
+        <v>200</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" ht="14.15" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>152003</v>
       </c>
-      <c r="B13" s="7">
-        <v>200</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="3">
+        <v>200</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" ht="14.15" spans="1:3">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>152004</v>
       </c>
-      <c r="B14" s="7">
-        <v>200</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="3">
+        <v>200</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" ht="14.15" spans="1:3">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>152005</v>
       </c>
-      <c r="B15" s="7">
-        <v>200</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="3">
+        <v>200</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" ht="14.15" spans="1:3">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>152006</v>
       </c>
-      <c r="B16" s="7">
-        <v>200</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="3">
+        <v>200</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" ht="14.15" spans="1:3">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>152007</v>
       </c>
-      <c r="B17" s="7">
-        <v>200</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="3">
+        <v>200</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" ht="14.15" spans="1:3">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>152008</v>
       </c>
-      <c r="B18" s="7">
-        <v>200</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="3">
+        <v>200</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" ht="14.15" spans="1:3">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>152009</v>
       </c>
-      <c r="B19" s="7">
-        <v>200</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="3">
+        <v>200</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" ht="14.15" spans="1:3">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>152011</v>
       </c>
-      <c r="B20" s="7">
-        <v>200</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="3">
+        <v>200</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" ht="14.15" spans="1:3">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>152012</v>
       </c>
-      <c r="B21" s="7">
-        <v>200</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="3">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" ht="14.15" spans="1:3">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>152013</v>
       </c>
-      <c r="B22" s="7">
-        <v>200</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="3">
+        <v>200</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" ht="14.15" spans="1:3">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>152014</v>
       </c>
-      <c r="B23" s="7">
-        <v>200</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="3">
+        <v>200</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" ht="14.15" spans="1:3">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <v>152015</v>
       </c>
-      <c r="B24" s="7">
-        <v>200</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="3">
+        <v>200</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" ht="14.15" spans="1:3">
-      <c r="A25" s="7">
+      <c r="A25" s="3">
         <v>152401</v>
       </c>
-      <c r="B25" s="7">
-        <v>200</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="3">
+        <v>200</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26" ht="14.15" spans="1:3">
-      <c r="A26" s="7">
+      <c r="A26" s="3">
         <v>152402</v>
       </c>
-      <c r="B26" s="7">
-        <v>200</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="3">
+        <v>200</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" ht="14.15" spans="1:3">
-      <c r="A27" s="7">
+      <c r="A27" s="3">
         <v>152404</v>
       </c>
-      <c r="B27" s="7">
-        <v>200</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="3">
+        <v>200</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" ht="14.15" spans="1:3">
-      <c r="A28" s="7">
+      <c r="A28" s="3">
         <v>152405</v>
       </c>
-      <c r="B28" s="7">
-        <v>200</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="3">
+        <v>200</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29" ht="14.15" spans="1:3">
-      <c r="A29" s="7">
+      <c r="A29" s="3">
         <v>152406</v>
       </c>
-      <c r="B29" s="7">
-        <v>200</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="3">
+        <v>200</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" ht="14.15" spans="1:3">
-      <c r="A30" s="7">
+      <c r="A30" s="3">
         <v>152407</v>
       </c>
-      <c r="B30" s="7">
-        <v>200</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="3">
+        <v>200</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" ht="14.15" spans="1:3">
-      <c r="A31" s="7">
+      <c r="A31" s="3">
         <v>152408</v>
       </c>
-      <c r="B31" s="7">
-        <v>200</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="3">
+        <v>200</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32" ht="14.15" spans="1:3">
-      <c r="A32" s="7">
+      <c r="A32" s="3">
         <v>152409</v>
       </c>
-      <c r="B32" s="7">
-        <v>200</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="3">
+        <v>200</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" ht="14.15" spans="1:3">
-      <c r="A33" s="7">
+      <c r="A33" s="3">
         <v>152410</v>
       </c>
-      <c r="B33" s="7">
-        <v>200</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="3">
+        <v>200</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" ht="14.15" spans="1:3">
-      <c r="A34" s="7">
+      <c r="A34" s="3">
         <v>150003</v>
       </c>
-      <c r="B34" s="7">
-        <v>200</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="3">
+        <v>200</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" ht="14.15" spans="1:3">
-      <c r="A35" s="7">
+      <c r="A35" s="3">
         <v>150004</v>
       </c>
-      <c r="B35" s="7">
-        <v>200</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="3">
+        <v>200</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" ht="14.15" spans="1:3">
-      <c r="A36" s="7">
+      <c r="A36" s="3">
         <v>542</v>
       </c>
-      <c r="B36" s="7">
-        <v>200</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="3">
+        <v>200</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="37" ht="14.15" spans="1:3">
-      <c r="A37" s="7">
+      <c r="A37" s="3">
         <v>102002</v>
       </c>
-      <c r="B37" s="7">
-        <v>200</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="3">
+        <v>200</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="38" ht="14.15" spans="1:3">
-      <c r="A38" s="7">
+      <c r="A38" s="3">
         <v>102005</v>
       </c>
-      <c r="B38" s="7">
-        <v>200</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="3">
+        <v>200</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="39" ht="14.15" spans="1:3">
-      <c r="A39" s="7">
+      <c r="A39" s="3">
         <v>102014</v>
       </c>
-      <c r="B39" s="7">
-        <v>200</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="3">
+        <v>200</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" ht="14.15" spans="1:3">
-      <c r="A40" s="7">
+      <c r="A40" s="3">
         <v>102015</v>
       </c>
-      <c r="B40" s="7">
-        <v>200</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="3">
+        <v>200</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" ht="14.15" spans="1:3">
-      <c r="A41" s="7">
+      <c r="A41" s="3">
         <v>102022</v>
       </c>
-      <c r="B41" s="7">
-        <v>200</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="3">
+        <v>200</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" ht="14.15" spans="1:3">
-      <c r="A42" s="7">
+      <c r="A42" s="3">
         <v>102037</v>
       </c>
-      <c r="B42" s="7">
-        <v>200</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="3">
+        <v>200</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="43" ht="14.15" spans="1:3">
-      <c r="A43" s="7">
+      <c r="A43" s="3">
         <v>102038</v>
       </c>
-      <c r="B43" s="7">
-        <v>200</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="3">
+        <v>200</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="44" ht="14.15" spans="1:3">
-      <c r="A44" s="7">
+      <c r="A44" s="3">
         <v>102039</v>
       </c>
-      <c r="B44" s="7">
-        <v>200</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="3">
+        <v>200</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="45" ht="14.15" spans="1:3">
-      <c r="A45" s="7">
+      <c r="A45" s="3">
         <v>102040</v>
       </c>
-      <c r="B45" s="7">
-        <v>200</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="3">
+        <v>200</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" ht="14.15" spans="1:3">
-      <c r="A46" s="7">
+      <c r="A46" s="3">
         <v>102047</v>
       </c>
-      <c r="B46" s="7">
-        <v>200</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="3">
+        <v>200</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="47" ht="14.15" spans="1:3">
-      <c r="A47" s="7">
+      <c r="A47" s="3">
         <v>102048</v>
       </c>
-      <c r="B47" s="7">
-        <v>200</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="3">
+        <v>200</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="48" ht="14.15" spans="1:3">
-      <c r="A48" s="7">
+      <c r="A48" s="3">
         <v>102049</v>
       </c>
-      <c r="B48" s="7">
-        <v>200</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="3">
+        <v>200</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="49" ht="14.15" spans="1:3">
-      <c r="A49" s="7">
+      <c r="A49" s="3">
         <v>102050</v>
       </c>
-      <c r="B49" s="7">
-        <v>200</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="3">
+        <v>200</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="50" ht="14.15" spans="1:3">
-      <c r="A50" s="7">
+      <c r="A50" s="3">
         <v>80001</v>
       </c>
-      <c r="B50" s="7">
-        <v>200</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="3">
+        <v>200</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="51" ht="14.15" spans="1:3">
-      <c r="A51" s="7">
+      <c r="A51" s="3">
         <v>80006</v>
       </c>
-      <c r="B51" s="7">
-        <v>200</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="3">
+        <v>200</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="52" ht="14.15" spans="1:3">
-      <c r="A52" s="7">
+      <c r="A52" s="3">
         <v>102051</v>
       </c>
-      <c r="B52" s="7">
-        <v>200</v>
-      </c>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="3">
+        <v>200</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" ht="14.15" spans="1:3">
-      <c r="A53" s="7">
+      <c r="A53" s="3">
         <v>102052</v>
       </c>
-      <c r="B53" s="7">
-        <v>200</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="3">
+        <v>200</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="54" ht="14.15" spans="1:3">
-      <c r="A54" s="7">
+      <c r="A54" s="3">
         <v>102053</v>
       </c>
-      <c r="B54" s="7">
-        <v>200</v>
-      </c>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="3">
+        <v>200</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="55" ht="14.15" spans="1:3">
-      <c r="A55" s="7">
+      <c r="A55" s="3">
         <v>102054</v>
       </c>
-      <c r="B55" s="7">
-        <v>200</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="3">
+        <v>200</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" ht="14.15" spans="1:3">
-      <c r="A56" s="7">
+      <c r="A56" s="3">
         <v>102055</v>
       </c>
-      <c r="B56" s="7">
-        <v>200</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="3">
+        <v>200</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" ht="14.15" spans="1:3">
-      <c r="A57" s="7">
+      <c r="A57" s="3">
         <v>102064</v>
       </c>
-      <c r="B57" s="7">
-        <v>200</v>
-      </c>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="3">
+        <v>200</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="58" ht="14.15" spans="1:3">
-      <c r="A58" s="7">
+      <c r="A58" s="3">
         <v>102065</v>
       </c>
-      <c r="B58" s="7">
-        <v>200</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="3">
+        <v>200</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" ht="14.15" spans="1:3">
-      <c r="A59" s="7">
+      <c r="A59" s="3">
         <v>102068</v>
       </c>
-      <c r="B59" s="7">
-        <v>200</v>
-      </c>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="3">
+        <v>200</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" ht="14.15" spans="1:3">
-      <c r="A60" s="7">
+      <c r="A60" s="3">
         <v>102089</v>
       </c>
-      <c r="B60" s="7">
-        <v>200</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="3">
+        <v>200</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="61" ht="14.15" spans="1:3">
-      <c r="A61" s="7">
+      <c r="A61" s="3">
         <v>103003</v>
       </c>
-      <c r="B61" s="7">
-        <v>200</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="3">
+        <v>200</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" ht="14.15" spans="1:3">
-      <c r="A62" s="7">
+      <c r="A62" s="3">
         <v>103013</v>
       </c>
-      <c r="B62" s="7">
-        <v>200</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="3">
+        <v>200</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" ht="14.15" spans="1:3">
-      <c r="A63" s="7">
+      <c r="A63" s="3">
         <v>110006</v>
       </c>
-      <c r="B63" s="7">
-        <v>200</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="3">
+        <v>200</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="64" ht="14.15" spans="1:3">
-      <c r="A64" s="7">
+      <c r="A64" s="3">
         <v>110019</v>
       </c>
-      <c r="B64" s="7">
-        <v>200</v>
-      </c>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="3">
+        <v>200</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" ht="14.15" spans="1:3">
-      <c r="A65" s="7">
+      <c r="A65" s="3">
         <v>1000</v>
       </c>
-      <c r="B65" s="7">
-        <v>200</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="3">
+        <v>200</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6427,8 +6415,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="A1:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="D39:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79259259259259" defaultRowHeight="14.1" outlineLevelCol="3"/>
@@ -6443,10 +6431,10 @@
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6454,290 +6442,290 @@
       </c>
     </row>
     <row r="2" ht="14.15" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" ht="14.15" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" ht="14.15" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" ht="14.15" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" ht="14.15" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" ht="14.15" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" ht="14.15" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" ht="14.15" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" ht="14.15" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" ht="14.15" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="12" ht="14.15" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" ht="14.15" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" ht="14.15" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15" ht="14.15" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" ht="14.15" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="17" ht="14.15" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="18" ht="14.15" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="19" ht="14.15" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" ht="14.15" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="21" ht="14.15" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" ht="14.15" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="23" ht="14.15" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="24" ht="28.25" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" ht="14.15" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" ht="14.15" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" ht="14.15" spans="1:4">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="28" ht="14.15" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
         <v>198</v>
       </c>
     </row>
